--- a/src/Files/ICS测试环 allocationmap_V0.5.xlsx
+++ b/src/Files/ICS测试环 allocationmap_V0.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsm\IdeaProjects\HCTools\src\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2884,7 +2884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3163,9 +3163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3176,7 +3173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3187,9 +3183,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3259,14 +3259,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
@@ -3988,15 +3980,15 @@
   <dimension ref="A1:AO111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AN29" sqref="AN29"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="58" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="58" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="58" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10" style="58" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="58" customWidth="1"/>
     <col min="4" max="4" width="16.9140625" style="58" customWidth="1"/>
     <col min="5" max="5" width="13.4140625" style="58" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="58" hidden="1" customWidth="1"/>
@@ -4223,25 +4215,25 @@
       <c r="AF2" s="52"/>
       <c r="AG2" s="52"/>
       <c r="AH2" s="52"/>
-      <c r="AI2" s="97">
+      <c r="AI2" s="105">
         <v>67830</v>
       </c>
-      <c r="AJ2" s="97">
+      <c r="AJ2" s="105">
         <v>5198.5</v>
       </c>
-      <c r="AK2" s="97">
+      <c r="AK2" s="105">
         <v>56565</v>
       </c>
-      <c r="AL2" s="97">
+      <c r="AL2" s="105">
         <v>5197</v>
       </c>
-      <c r="AM2" s="97">
+      <c r="AM2" s="105">
         <v>1506</v>
       </c>
-      <c r="AN2" s="97">
+      <c r="AN2" s="105">
         <v>1506</v>
       </c>
-      <c r="AO2" s="97"/>
+      <c r="AO2" s="105"/>
     </row>
     <row r="3" spans="1:41" s="59" customFormat="1">
       <c r="A3" s="52">
@@ -4304,6 +4296,13 @@
       <c r="AF3" s="52"/>
       <c r="AG3" s="52"/>
       <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
     </row>
     <row r="4" spans="1:41" s="59" customFormat="1">
       <c r="A4" s="52">
@@ -4382,25 +4381,25 @@
       <c r="AF4" s="52"/>
       <c r="AG4" s="52"/>
       <c r="AH4" s="52"/>
-      <c r="AI4" s="107">
+      <c r="AI4" s="105">
         <v>56510</v>
       </c>
-      <c r="AJ4" s="107">
+      <c r="AJ4" s="105">
         <v>5197</v>
       </c>
-      <c r="AK4" s="107">
+      <c r="AK4" s="105">
         <v>46566</v>
       </c>
-      <c r="AL4" s="107">
+      <c r="AL4" s="105">
         <v>5197</v>
       </c>
-      <c r="AM4" s="107">
+      <c r="AM4" s="105">
         <v>1506</v>
       </c>
-      <c r="AN4" s="107">
+      <c r="AN4" s="105">
         <v>1704</v>
       </c>
-      <c r="AO4" s="107"/>
+      <c r="AO4" s="105"/>
     </row>
     <row r="5" spans="1:41" s="59" customFormat="1">
       <c r="A5" s="52">
@@ -4475,25 +4474,25 @@
       <c r="AF5" s="52"/>
       <c r="AG5" s="52"/>
       <c r="AH5" s="52"/>
-      <c r="AI5" s="107">
+      <c r="AI5" s="105">
         <v>46522</v>
       </c>
-      <c r="AJ5" s="107">
+      <c r="AJ5" s="105">
         <v>5197</v>
       </c>
-      <c r="AK5" s="107">
+      <c r="AK5" s="105">
         <v>36622</v>
       </c>
-      <c r="AL5" s="107">
+      <c r="AL5" s="105">
         <v>5197</v>
       </c>
-      <c r="AM5" s="107">
+      <c r="AM5" s="105">
         <v>1704</v>
       </c>
-      <c r="AN5" s="107">
+      <c r="AN5" s="105">
         <v>1704</v>
       </c>
-      <c r="AO5" s="107"/>
+      <c r="AO5" s="105"/>
     </row>
     <row r="6" spans="1:41" s="59" customFormat="1">
       <c r="A6" s="52">
@@ -4580,13 +4579,13 @@
       <c r="AL6" s="5">
         <v>3465.5</v>
       </c>
-      <c r="AM6" s="107">
+      <c r="AM6" s="105">
         <v>1704</v>
       </c>
-      <c r="AN6" s="107">
+      <c r="AN6" s="105">
         <v>1704</v>
       </c>
-      <c r="AO6" s="107">
+      <c r="AO6" s="105">
         <v>90</v>
       </c>
     </row>
@@ -4663,25 +4662,25 @@
       <c r="AF7" s="52"/>
       <c r="AG7" s="52"/>
       <c r="AH7" s="52"/>
-      <c r="AI7" s="107">
+      <c r="AI7" s="105">
         <v>34836</v>
       </c>
-      <c r="AJ7" s="107">
+      <c r="AJ7" s="105">
         <v>3423</v>
       </c>
-      <c r="AK7" s="107">
+      <c r="AK7" s="105">
         <v>34836</v>
       </c>
-      <c r="AL7" s="107">
+      <c r="AL7" s="105">
         <v>-7077</v>
       </c>
-      <c r="AM7" s="107">
+      <c r="AM7" s="105">
         <v>1704</v>
       </c>
-      <c r="AN7" s="107">
+      <c r="AN7" s="105">
         <v>1704</v>
       </c>
-      <c r="AO7" s="107"/>
+      <c r="AO7" s="105"/>
     </row>
     <row r="8" spans="1:41" s="59" customFormat="1">
       <c r="A8" s="52">
@@ -4756,25 +4755,25 @@
       <c r="AF8" s="52"/>
       <c r="AG8" s="52"/>
       <c r="AH8" s="52"/>
-      <c r="AI8" s="107">
+      <c r="AI8" s="105">
         <v>34830</v>
       </c>
-      <c r="AJ8" s="107">
+      <c r="AJ8" s="105">
         <v>-7105</v>
       </c>
-      <c r="AK8" s="107">
+      <c r="AK8" s="105">
         <v>34830</v>
       </c>
-      <c r="AL8" s="107">
+      <c r="AL8" s="105">
         <v>-13546</v>
       </c>
-      <c r="AM8" s="107">
+      <c r="AM8" s="105">
         <v>1704</v>
       </c>
-      <c r="AN8" s="107">
+      <c r="AN8" s="105">
         <v>1704</v>
       </c>
-      <c r="AO8" s="107"/>
+      <c r="AO8" s="105"/>
     </row>
     <row r="9" spans="1:41" s="59" customFormat="1">
       <c r="A9" s="52">
@@ -4853,25 +4852,25 @@
       <c r="AF9" s="52"/>
       <c r="AG9" s="52"/>
       <c r="AH9" s="52"/>
-      <c r="AI9" s="107">
+      <c r="AI9" s="105">
         <v>34830</v>
       </c>
-      <c r="AJ9" s="107">
+      <c r="AJ9" s="105">
         <v>-13598.5</v>
       </c>
-      <c r="AK9" s="107">
+      <c r="AK9" s="105">
         <v>34830</v>
       </c>
-      <c r="AL9" s="107">
+      <c r="AL9" s="105">
         <v>-22619</v>
       </c>
-      <c r="AM9" s="107">
+      <c r="AM9" s="105">
         <v>1704</v>
       </c>
-      <c r="AN9" s="107">
+      <c r="AN9" s="105">
         <v>1451</v>
       </c>
-      <c r="AO9" s="107"/>
+      <c r="AO9" s="105"/>
     </row>
     <row r="10" spans="1:41" s="59" customFormat="1">
       <c r="A10" s="52">
@@ -4958,13 +4957,13 @@
       <c r="AL10" s="5">
         <v>-24370</v>
       </c>
-      <c r="AM10" s="107">
+      <c r="AM10" s="105">
         <v>1451</v>
       </c>
-      <c r="AN10" s="107">
+      <c r="AN10" s="105">
         <v>1451</v>
       </c>
-      <c r="AO10" s="107">
+      <c r="AO10" s="105">
         <v>90</v>
       </c>
     </row>
@@ -5053,13 +5052,13 @@
       <c r="AL11" s="5">
         <v>-24092</v>
       </c>
-      <c r="AM11" s="107">
+      <c r="AM11" s="105">
         <v>1451</v>
       </c>
-      <c r="AN11" s="107">
+      <c r="AN11" s="105">
         <v>1451</v>
       </c>
-      <c r="AO11" s="107">
+      <c r="AO11" s="105">
         <v>30</v>
       </c>
     </row>
@@ -5136,25 +5135,25 @@
       <c r="AF12" s="52"/>
       <c r="AG12" s="52"/>
       <c r="AH12" s="52"/>
-      <c r="AI12" s="107">
+      <c r="AI12" s="105">
         <v>37494.5</v>
       </c>
-      <c r="AJ12" s="107">
+      <c r="AJ12" s="105">
         <v>-24025.5</v>
       </c>
-      <c r="AK12" s="107">
+      <c r="AK12" s="105">
         <v>38457.5</v>
       </c>
-      <c r="AL12" s="107">
+      <c r="AL12" s="105">
         <v>-23469.5</v>
       </c>
-      <c r="AM12" s="107">
+      <c r="AM12" s="105">
         <v>1451</v>
       </c>
-      <c r="AN12" s="107">
+      <c r="AN12" s="105">
         <v>1451</v>
       </c>
-      <c r="AO12" s="107"/>
+      <c r="AO12" s="105"/>
     </row>
     <row r="13" spans="1:41" s="59" customFormat="1">
       <c r="A13" s="52">
@@ -5229,25 +5228,25 @@
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
       <c r="AH13" s="52"/>
-      <c r="AI13" s="107">
+      <c r="AI13" s="105">
         <v>38544.5</v>
       </c>
-      <c r="AJ13" s="107">
+      <c r="AJ13" s="105">
         <v>-23419.5</v>
       </c>
-      <c r="AK13" s="107">
+      <c r="AK13" s="105">
         <v>39496.5</v>
       </c>
-      <c r="AL13" s="107">
+      <c r="AL13" s="105">
         <v>-22869.5</v>
       </c>
-      <c r="AM13" s="107">
+      <c r="AM13" s="105">
         <v>1451</v>
       </c>
-      <c r="AN13" s="107">
+      <c r="AN13" s="105">
         <v>1451</v>
       </c>
-      <c r="AO13" s="107"/>
+      <c r="AO13" s="105"/>
     </row>
     <row r="14" spans="1:41" s="59" customFormat="1">
       <c r="A14" s="52">
@@ -5320,9 +5319,9 @@
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="97"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
     </row>
     <row r="15" spans="1:41" s="59" customFormat="1">
       <c r="A15" s="52">
@@ -5397,25 +5396,25 @@
       <c r="AF15" s="52"/>
       <c r="AG15" s="52"/>
       <c r="AH15" s="52"/>
-      <c r="AI15" s="107">
+      <c r="AI15" s="105">
         <v>39583.5</v>
       </c>
-      <c r="AJ15" s="107">
+      <c r="AJ15" s="105">
         <v>-22819.5</v>
       </c>
-      <c r="AK15" s="107">
+      <c r="AK15" s="105">
         <v>42614.5</v>
       </c>
-      <c r="AL15" s="107">
+      <c r="AL15" s="105">
         <v>-21069.5</v>
       </c>
-      <c r="AM15" s="107">
+      <c r="AM15" s="105">
         <v>1451</v>
       </c>
-      <c r="AN15" s="107">
+      <c r="AN15" s="105">
         <v>1451</v>
       </c>
-      <c r="AO15" s="107"/>
+      <c r="AO15" s="105"/>
     </row>
     <row r="16" spans="1:41" s="59" customFormat="1">
       <c r="A16" s="52">
@@ -5490,25 +5489,25 @@
       <c r="AF16" s="52"/>
       <c r="AG16" s="52"/>
       <c r="AH16" s="52"/>
-      <c r="AI16" s="107">
+      <c r="AI16" s="105">
         <v>42687.5</v>
       </c>
-      <c r="AJ16" s="107">
+      <c r="AJ16" s="105">
         <v>-20996.5</v>
       </c>
-      <c r="AK16" s="107">
+      <c r="AK16" s="105">
         <v>43640.5</v>
       </c>
-      <c r="AL16" s="107">
+      <c r="AL16" s="105">
         <v>-20446.5</v>
       </c>
-      <c r="AM16" s="107">
+      <c r="AM16" s="105">
         <v>1451</v>
       </c>
-      <c r="AN16" s="107">
+      <c r="AN16" s="105">
         <v>1451</v>
       </c>
-      <c r="AO16" s="107"/>
+      <c r="AO16" s="105"/>
     </row>
     <row r="17" spans="1:41" s="59" customFormat="1">
       <c r="A17" s="52">
@@ -5585,25 +5584,25 @@
       <c r="AF17" s="52"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
-      <c r="AI17" s="107">
+      <c r="AI17" s="105">
         <v>43684</v>
       </c>
-      <c r="AJ17" s="107">
+      <c r="AJ17" s="105">
         <v>-20422</v>
       </c>
-      <c r="AK17" s="107">
+      <c r="AK17" s="105">
         <v>44714</v>
       </c>
-      <c r="AL17" s="107">
+      <c r="AL17" s="105">
         <v>-19827</v>
       </c>
-      <c r="AM17" s="107">
+      <c r="AM17" s="105">
         <v>1451</v>
       </c>
-      <c r="AN17" s="107">
+      <c r="AN17" s="105">
         <v>1252</v>
       </c>
-      <c r="AO17" s="107"/>
+      <c r="AO17" s="105"/>
     </row>
     <row r="18" spans="1:41" s="59" customFormat="1">
       <c r="A18" s="52">
@@ -5668,9 +5667,9 @@
       <c r="AJ18" s="72"/>
       <c r="AK18" s="72"/>
       <c r="AL18" s="72"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="97"/>
-      <c r="AO18" s="97"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
     </row>
     <row r="19" spans="1:41" s="59" customFormat="1">
       <c r="A19" s="52">
@@ -5759,13 +5758,13 @@
       <c r="AL19" s="5">
         <v>-8717</v>
       </c>
-      <c r="AM19" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN19" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO19" s="107">
+      <c r="AM19" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN19" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO19" s="105">
         <v>60</v>
       </c>
     </row>
@@ -5844,25 +5843,25 @@
       <c r="AF20" s="83"/>
       <c r="AG20" s="83"/>
       <c r="AH20" s="83"/>
-      <c r="AI20" s="107">
+      <c r="AI20" s="105">
         <v>79710</v>
       </c>
-      <c r="AJ20" s="107">
+      <c r="AJ20" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK20" s="107">
+      <c r="AK20" s="105">
         <v>77310</v>
       </c>
-      <c r="AL20" s="107">
+      <c r="AL20" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM20" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN20" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO20" s="107"/>
+      <c r="AM20" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN20" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO20" s="105"/>
     </row>
     <row r="21" spans="1:41" s="86" customFormat="1">
       <c r="A21" s="84">
@@ -5935,25 +5934,25 @@
       <c r="AF21" s="84"/>
       <c r="AG21" s="84"/>
       <c r="AH21" s="84"/>
-      <c r="AI21" s="108">
+      <c r="AI21" s="105">
         <v>77310</v>
       </c>
-      <c r="AJ21" s="108">
+      <c r="AJ21" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK21" s="108">
+      <c r="AK21" s="105">
         <v>75310</v>
       </c>
-      <c r="AL21" s="108">
+      <c r="AL21" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM21" s="108">
-        <v>500</v>
-      </c>
-      <c r="AN21" s="108">
-        <v>500</v>
-      </c>
-      <c r="AO21" s="97"/>
+      <c r="AM21" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN21" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO21" s="105"/>
     </row>
     <row r="22" spans="1:41" s="86" customFormat="1">
       <c r="A22" s="83">
@@ -6030,25 +6029,25 @@
       <c r="AF22" s="83"/>
       <c r="AG22" s="83"/>
       <c r="AH22" s="83"/>
-      <c r="AI22" s="107">
+      <c r="AI22" s="105">
         <v>75310</v>
       </c>
-      <c r="AJ22" s="107">
+      <c r="AJ22" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK22" s="107">
+      <c r="AK22" s="105">
         <v>73710</v>
       </c>
-      <c r="AL22" s="108">
+      <c r="AL22" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM22" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN22" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO22" s="107"/>
+      <c r="AM22" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN22" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO22" s="105"/>
     </row>
     <row r="23" spans="1:41" s="59" customFormat="1">
       <c r="A23" s="52">
@@ -6125,25 +6124,25 @@
       <c r="AF23" s="52"/>
       <c r="AG23" s="52"/>
       <c r="AH23" s="52"/>
-      <c r="AI23" s="107">
+      <c r="AI23" s="105">
         <v>73710</v>
       </c>
-      <c r="AJ23" s="107">
+      <c r="AJ23" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK23" s="107">
+      <c r="AK23" s="105">
         <v>67710</v>
       </c>
-      <c r="AL23" s="107">
+      <c r="AL23" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM23" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN23" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO23" s="107"/>
+      <c r="AM23" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN23" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO23" s="105"/>
     </row>
     <row r="24" spans="1:41" s="59" customFormat="1">
       <c r="A24" s="52">
@@ -6220,25 +6219,25 @@
       <c r="AF24" s="52"/>
       <c r="AG24" s="52"/>
       <c r="AH24" s="52"/>
-      <c r="AI24" s="107">
+      <c r="AI24" s="105">
         <v>67710</v>
       </c>
-      <c r="AJ24" s="107">
+      <c r="AJ24" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK24" s="107">
+      <c r="AK24" s="105">
         <v>61710</v>
       </c>
-      <c r="AL24" s="107">
+      <c r="AL24" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM24" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN24" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO24" s="107"/>
+      <c r="AM24" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN24" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO24" s="105"/>
     </row>
     <row r="25" spans="1:41" s="59" customFormat="1">
       <c r="A25" s="52">
@@ -6315,25 +6314,25 @@
       <c r="AF25" s="52"/>
       <c r="AG25" s="52"/>
       <c r="AH25" s="52"/>
-      <c r="AI25" s="107">
+      <c r="AI25" s="105">
         <v>61710</v>
       </c>
-      <c r="AJ25" s="107">
+      <c r="AJ25" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK25" s="107">
+      <c r="AK25" s="105">
         <v>55710</v>
       </c>
-      <c r="AL25" s="107">
+      <c r="AL25" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM25" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN25" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO25" s="107"/>
+      <c r="AM25" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN25" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO25" s="105"/>
     </row>
     <row r="26" spans="1:41" s="59" customFormat="1">
       <c r="A26" s="52">
@@ -6410,25 +6409,25 @@
       <c r="AF26" s="52"/>
       <c r="AG26" s="52"/>
       <c r="AH26" s="52"/>
-      <c r="AI26" s="107">
+      <c r="AI26" s="105">
         <v>55710</v>
       </c>
-      <c r="AJ26" s="107">
+      <c r="AJ26" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK26" s="107">
+      <c r="AK26" s="105">
         <v>49710</v>
       </c>
-      <c r="AL26" s="107">
+      <c r="AL26" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM26" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN26" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO26" s="107"/>
+      <c r="AM26" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN26" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO26" s="105"/>
     </row>
     <row r="27" spans="1:41" s="59" customFormat="1">
       <c r="A27" s="52">
@@ -6505,25 +6504,25 @@
       <c r="AF27" s="52"/>
       <c r="AG27" s="52"/>
       <c r="AH27" s="52"/>
-      <c r="AI27" s="107">
+      <c r="AI27" s="105">
         <v>49710</v>
       </c>
-      <c r="AJ27" s="107">
+      <c r="AJ27" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK27" s="107">
+      <c r="AK27" s="105">
         <v>46110</v>
       </c>
-      <c r="AL27" s="107">
+      <c r="AL27" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM27" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN27" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO27" s="107"/>
+      <c r="AM27" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN27" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO27" s="105"/>
     </row>
     <row r="28" spans="1:41" s="86" customFormat="1">
       <c r="A28" s="83">
@@ -6600,25 +6599,25 @@
       <c r="AF28" s="83"/>
       <c r="AG28" s="83"/>
       <c r="AH28" s="83"/>
-      <c r="AI28" s="107">
+      <c r="AI28" s="105">
         <v>46050</v>
       </c>
-      <c r="AJ28" s="107">
+      <c r="AJ28" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK28" s="107">
+      <c r="AK28" s="105">
         <v>44450</v>
       </c>
-      <c r="AL28" s="107">
+      <c r="AL28" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM28" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN28" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO28" s="107"/>
+      <c r="AM28" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN28" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO28" s="105"/>
     </row>
     <row r="29" spans="1:41" s="86" customFormat="1">
       <c r="A29" s="84">
@@ -6695,25 +6694,25 @@
       <c r="AF29" s="84"/>
       <c r="AG29" s="84"/>
       <c r="AH29" s="84"/>
-      <c r="AI29" s="107">
+      <c r="AI29" s="105">
         <v>44390</v>
       </c>
-      <c r="AJ29" s="108">
+      <c r="AJ29" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK29" s="97">
+      <c r="AK29" s="105">
         <v>42790</v>
       </c>
-      <c r="AL29" s="108">
+      <c r="AL29" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM29" s="108">
-        <v>500</v>
-      </c>
-      <c r="AN29" s="108">
-        <v>500</v>
-      </c>
-      <c r="AO29" s="97"/>
+      <c r="AM29" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN29" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO29" s="105"/>
     </row>
     <row r="30" spans="1:41" s="86" customFormat="1">
       <c r="A30" s="83">
@@ -6790,25 +6789,25 @@
       <c r="AF30" s="83"/>
       <c r="AG30" s="83"/>
       <c r="AH30" s="83"/>
-      <c r="AI30" s="108">
+      <c r="AI30" s="105">
         <v>42790</v>
       </c>
-      <c r="AJ30" s="108">
+      <c r="AJ30" s="105">
         <v>-7593</v>
       </c>
-      <c r="AK30" s="107">
+      <c r="AK30" s="105">
         <v>40790</v>
       </c>
-      <c r="AL30" s="107">
+      <c r="AL30" s="105">
         <v>-7593</v>
       </c>
-      <c r="AM30" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN30" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO30" s="107"/>
+      <c r="AM30" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN30" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO30" s="105"/>
     </row>
     <row r="31" spans="1:41" s="59" customFormat="1">
       <c r="A31" s="52">
@@ -6897,13 +6896,13 @@
       <c r="AL31" s="5">
         <v>-8708.5</v>
       </c>
-      <c r="AM31" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN31" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO31" s="107">
+      <c r="AM31" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN31" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO31" s="105">
         <v>60</v>
       </c>
     </row>
@@ -6982,22 +6981,22 @@
       <c r="AF32" s="52"/>
       <c r="AG32" s="52"/>
       <c r="AH32" s="52"/>
-      <c r="AI32" s="107">
+      <c r="AI32" s="105">
         <v>37665</v>
       </c>
-      <c r="AJ32" s="107">
+      <c r="AJ32" s="105">
         <v>-6063</v>
       </c>
-      <c r="AK32" s="107">
+      <c r="AK32" s="105">
         <v>37665</v>
       </c>
-      <c r="AL32" s="107">
+      <c r="AL32" s="105">
         <v>-8463</v>
       </c>
-      <c r="AM32" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN32" s="107">
+      <c r="AM32" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN32" s="105">
         <v>500</v>
       </c>
       <c r="AO32" s="52"/>
@@ -7081,9 +7080,9 @@
       <c r="AJ33" s="72"/>
       <c r="AK33" s="72"/>
       <c r="AL33" s="72"/>
-      <c r="AM33" s="97"/>
-      <c r="AN33" s="97"/>
-      <c r="AO33" s="97"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
     </row>
     <row r="34" spans="1:41" s="59" customFormat="1">
       <c r="A34" s="52">
@@ -7167,9 +7166,9 @@
       <c r="AJ34" s="72"/>
       <c r="AK34" s="72"/>
       <c r="AL34" s="72"/>
-      <c r="AM34" s="97"/>
-      <c r="AN34" s="97"/>
-      <c r="AO34" s="97"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
     </row>
     <row r="35" spans="1:41" s="59" customFormat="1">
       <c r="A35" s="52">
@@ -7246,22 +7245,22 @@
       <c r="AF35" s="52"/>
       <c r="AG35" s="52"/>
       <c r="AH35" s="52"/>
-      <c r="AI35" s="107">
+      <c r="AI35" s="105">
         <v>37665</v>
       </c>
-      <c r="AJ35" s="107">
+      <c r="AJ35" s="105">
         <v>-8463</v>
       </c>
-      <c r="AK35" s="107">
+      <c r="AK35" s="105">
         <v>37665</v>
       </c>
-      <c r="AL35" s="107">
+      <c r="AL35" s="105">
         <v>-12063</v>
       </c>
-      <c r="AM35" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN35" s="107">
+      <c r="AM35" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN35" s="105">
         <v>500</v>
       </c>
       <c r="AO35" s="52"/>
@@ -7341,22 +7340,22 @@
       <c r="AF36" s="52"/>
       <c r="AG36" s="52"/>
       <c r="AH36" s="52"/>
-      <c r="AI36" s="107">
+      <c r="AI36" s="105">
         <v>37665</v>
       </c>
-      <c r="AJ36" s="107">
+      <c r="AJ36" s="105">
         <v>-12063</v>
       </c>
-      <c r="AK36" s="107">
+      <c r="AK36" s="105">
         <v>37665</v>
       </c>
-      <c r="AL36" s="107">
+      <c r="AL36" s="105">
         <v>-13663</v>
       </c>
-      <c r="AM36" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN36" s="107">
+      <c r="AM36" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN36" s="105">
         <v>500</v>
       </c>
       <c r="AO36" s="52"/>
@@ -7452,13 +7451,13 @@
       <c r="AL37" s="5">
         <v>-13744</v>
       </c>
-      <c r="AM37" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN37" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO37" s="107">
+      <c r="AM37" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN37" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO37" s="105">
         <v>90</v>
       </c>
     </row>
@@ -7537,25 +7536,25 @@
       <c r="AF38" s="52"/>
       <c r="AG38" s="52"/>
       <c r="AH38" s="52"/>
-      <c r="AI38" s="107">
+      <c r="AI38" s="105">
         <v>40972</v>
       </c>
-      <c r="AJ38" s="107">
+      <c r="AJ38" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK38" s="107">
+      <c r="AK38" s="105">
         <v>44572</v>
       </c>
-      <c r="AL38" s="107">
+      <c r="AL38" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM38" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN38" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO38" s="107"/>
+      <c r="AM38" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN38" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO38" s="105"/>
     </row>
     <row r="39" spans="1:41" s="59" customFormat="1">
       <c r="A39" s="52">
@@ -7632,25 +7631,25 @@
       <c r="AF39" s="52"/>
       <c r="AG39" s="52"/>
       <c r="AH39" s="52"/>
-      <c r="AI39" s="107">
+      <c r="AI39" s="105">
         <v>44572</v>
       </c>
-      <c r="AJ39" s="107">
+      <c r="AJ39" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK39" s="107">
+      <c r="AK39" s="105">
         <v>46572</v>
       </c>
-      <c r="AL39" s="107">
+      <c r="AL39" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM39" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN39" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO39" s="107"/>
+      <c r="AM39" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN39" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO39" s="105"/>
     </row>
     <row r="40" spans="1:41" s="59" customFormat="1" ht="28">
       <c r="A40" s="52">
@@ -7727,13 +7726,13 @@
       <c r="AF40" s="52"/>
       <c r="AG40" s="52"/>
       <c r="AH40" s="52"/>
-      <c r="AI40" s="97"/>
-      <c r="AJ40" s="97"/>
-      <c r="AK40" s="97"/>
-      <c r="AL40" s="97"/>
-      <c r="AM40" s="97"/>
-      <c r="AN40" s="97"/>
-      <c r="AO40" s="97"/>
+      <c r="AI40" s="105"/>
+      <c r="AJ40" s="105"/>
+      <c r="AK40" s="105"/>
+      <c r="AL40" s="105"/>
+      <c r="AM40" s="105"/>
+      <c r="AN40" s="105"/>
+      <c r="AO40" s="105"/>
     </row>
     <row r="41" spans="1:41" s="59" customFormat="1">
       <c r="A41" s="52">
@@ -7813,13 +7812,13 @@
       <c r="AF41" s="52"/>
       <c r="AG41" s="52"/>
       <c r="AH41" s="52"/>
-      <c r="AI41" s="97"/>
-      <c r="AJ41" s="97"/>
-      <c r="AK41" s="97"/>
-      <c r="AL41" s="97"/>
-      <c r="AM41" s="97"/>
-      <c r="AN41" s="97"/>
-      <c r="AO41" s="97"/>
+      <c r="AI41" s="105"/>
+      <c r="AJ41" s="105"/>
+      <c r="AK41" s="105"/>
+      <c r="AL41" s="105"/>
+      <c r="AM41" s="105"/>
+      <c r="AN41" s="105"/>
+      <c r="AO41" s="105"/>
     </row>
     <row r="42" spans="1:41" s="59" customFormat="1">
       <c r="A42" s="52">
@@ -7896,25 +7895,25 @@
       <c r="AF42" s="52"/>
       <c r="AG42" s="52"/>
       <c r="AH42" s="52"/>
-      <c r="AI42" s="97">
+      <c r="AI42" s="105">
         <v>46572</v>
       </c>
-      <c r="AJ42" s="97">
+      <c r="AJ42" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK42" s="97">
+      <c r="AK42" s="105">
         <v>50172</v>
       </c>
-      <c r="AL42" s="97">
+      <c r="AL42" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM42" s="97">
-        <v>500</v>
-      </c>
-      <c r="AN42" s="97">
-        <v>500</v>
-      </c>
-      <c r="AO42" s="97"/>
+      <c r="AM42" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN42" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO42" s="105"/>
     </row>
     <row r="43" spans="1:41" s="59" customFormat="1">
       <c r="A43" s="52">
@@ -7991,25 +7990,25 @@
       <c r="AF43" s="52"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
-      <c r="AI43" s="97">
+      <c r="AI43" s="105">
         <v>50172</v>
       </c>
-      <c r="AJ43" s="97">
+      <c r="AJ43" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK43" s="97">
+      <c r="AK43" s="105">
         <v>51772</v>
       </c>
-      <c r="AL43" s="97">
+      <c r="AL43" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM43" s="97">
-        <v>500</v>
-      </c>
-      <c r="AN43" s="97">
-        <v>500</v>
-      </c>
-      <c r="AO43" s="97"/>
+      <c r="AM43" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN43" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO43" s="105"/>
     </row>
     <row r="44" spans="1:41" s="59" customFormat="1" ht="28">
       <c r="A44" s="52">
@@ -8086,13 +8085,13 @@
       <c r="AF44" s="52"/>
       <c r="AG44" s="52"/>
       <c r="AH44" s="52"/>
-      <c r="AI44" s="97"/>
-      <c r="AJ44" s="97"/>
-      <c r="AK44" s="97"/>
-      <c r="AL44" s="97"/>
-      <c r="AM44" s="97"/>
-      <c r="AN44" s="97"/>
-      <c r="AO44" s="97"/>
+      <c r="AI44" s="105"/>
+      <c r="AJ44" s="105"/>
+      <c r="AK44" s="105"/>
+      <c r="AL44" s="105"/>
+      <c r="AM44" s="105"/>
+      <c r="AN44" s="105"/>
+      <c r="AO44" s="105"/>
     </row>
     <row r="45" spans="1:41" s="59" customFormat="1">
       <c r="A45" s="52">
@@ -8173,13 +8172,13 @@
       <c r="AF45" s="52"/>
       <c r="AG45" s="52"/>
       <c r="AH45" s="52"/>
-      <c r="AI45" s="97"/>
-      <c r="AJ45" s="97"/>
-      <c r="AK45" s="97"/>
-      <c r="AL45" s="97"/>
-      <c r="AM45" s="97"/>
-      <c r="AN45" s="97"/>
-      <c r="AO45" s="97"/>
+      <c r="AI45" s="105"/>
+      <c r="AJ45" s="105"/>
+      <c r="AK45" s="105"/>
+      <c r="AL45" s="105"/>
+      <c r="AM45" s="105"/>
+      <c r="AN45" s="105"/>
+      <c r="AO45" s="105"/>
     </row>
     <row r="46" spans="1:41" s="59" customFormat="1">
       <c r="A46" s="52">
@@ -8256,25 +8255,25 @@
       <c r="AF46" s="52"/>
       <c r="AG46" s="52"/>
       <c r="AH46" s="52"/>
-      <c r="AI46" s="107">
+      <c r="AI46" s="105">
         <v>51772</v>
       </c>
-      <c r="AJ46" s="107">
+      <c r="AJ46" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK46" s="107">
+      <c r="AK46" s="105">
         <v>55372</v>
       </c>
-      <c r="AL46" s="107">
+      <c r="AL46" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM46" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN46" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO46" s="97"/>
+      <c r="AM46" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN46" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO46" s="105"/>
     </row>
     <row r="47" spans="1:41" s="59" customFormat="1">
       <c r="A47" s="52">
@@ -8351,25 +8350,25 @@
       <c r="AF47" s="52"/>
       <c r="AG47" s="52"/>
       <c r="AH47" s="52"/>
-      <c r="AI47" s="107">
+      <c r="AI47" s="105">
         <v>55372</v>
       </c>
-      <c r="AJ47" s="107">
+      <c r="AJ47" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK47" s="107">
+      <c r="AK47" s="105">
         <v>56972</v>
       </c>
-      <c r="AL47" s="107">
+      <c r="AL47" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM47" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN47" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO47" s="97"/>
+      <c r="AM47" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN47" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO47" s="105"/>
     </row>
     <row r="48" spans="1:41" s="59" customFormat="1">
       <c r="A48" s="52">
@@ -8446,25 +8445,25 @@
       <c r="AF48" s="52"/>
       <c r="AG48" s="52"/>
       <c r="AH48" s="52"/>
-      <c r="AI48" s="107">
+      <c r="AI48" s="105">
         <v>56972</v>
       </c>
-      <c r="AJ48" s="107">
+      <c r="AJ48" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK48" s="107">
+      <c r="AK48" s="105">
         <v>58572</v>
       </c>
-      <c r="AL48" s="107">
+      <c r="AL48" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM48" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN48" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO48" s="97"/>
+      <c r="AM48" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN48" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO48" s="105"/>
     </row>
     <row r="49" spans="1:41" s="59" customFormat="1">
       <c r="A49" s="52">
@@ -8541,13 +8540,13 @@
       <c r="AF49" s="52"/>
       <c r="AG49" s="52"/>
       <c r="AH49" s="52"/>
-      <c r="AI49" s="97"/>
-      <c r="AJ49" s="97"/>
-      <c r="AK49" s="97"/>
-      <c r="AL49" s="97"/>
-      <c r="AM49" s="97"/>
-      <c r="AN49" s="97"/>
-      <c r="AO49" s="97"/>
+      <c r="AI49" s="105"/>
+      <c r="AJ49" s="105"/>
+      <c r="AK49" s="105"/>
+      <c r="AL49" s="105"/>
+      <c r="AM49" s="105"/>
+      <c r="AN49" s="105"/>
+      <c r="AO49" s="105"/>
     </row>
     <row r="50" spans="1:41" s="59" customFormat="1">
       <c r="A50" s="52">
@@ -8624,25 +8623,25 @@
       <c r="AF50" s="52"/>
       <c r="AG50" s="52"/>
       <c r="AH50" s="52"/>
-      <c r="AI50" s="107">
+      <c r="AI50" s="105">
         <v>59690</v>
       </c>
-      <c r="AJ50" s="107">
+      <c r="AJ50" s="105">
         <v>-15062</v>
       </c>
-      <c r="AK50" s="107">
+      <c r="AK50" s="105">
         <v>59690</v>
       </c>
-      <c r="AL50" s="107">
+      <c r="AL50" s="105">
         <v>-16662</v>
       </c>
-      <c r="AM50" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN50" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO50" s="97"/>
+      <c r="AM50" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN50" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO50" s="105"/>
     </row>
     <row r="51" spans="1:41" s="59" customFormat="1">
       <c r="A51" s="52">
@@ -8705,13 +8704,13 @@
       <c r="AF51" s="52"/>
       <c r="AG51" s="52"/>
       <c r="AH51" s="52"/>
-      <c r="AI51" s="97"/>
-      <c r="AJ51" s="97"/>
-      <c r="AK51" s="97"/>
-      <c r="AL51" s="97"/>
-      <c r="AM51" s="97"/>
-      <c r="AN51" s="97"/>
-      <c r="AO51" s="97"/>
+      <c r="AI51" s="105"/>
+      <c r="AJ51" s="105"/>
+      <c r="AK51" s="105"/>
+      <c r="AL51" s="105"/>
+      <c r="AM51" s="105"/>
+      <c r="AN51" s="105"/>
+      <c r="AO51" s="105"/>
     </row>
     <row r="52" spans="1:41" s="59" customFormat="1">
       <c r="A52" s="52">
@@ -8788,25 +8787,25 @@
       <c r="AF52" s="52"/>
       <c r="AG52" s="52"/>
       <c r="AH52" s="52"/>
-      <c r="AI52" s="107">
+      <c r="AI52" s="105">
         <v>58572</v>
       </c>
-      <c r="AJ52" s="107">
+      <c r="AJ52" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK52" s="107">
+      <c r="AK52" s="105">
         <v>60972</v>
       </c>
-      <c r="AL52" s="107">
+      <c r="AL52" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM52" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN52" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO52" s="107"/>
+      <c r="AM52" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN52" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO52" s="105"/>
     </row>
     <row r="53" spans="1:41" s="59" customFormat="1">
       <c r="A53" s="52">
@@ -8883,25 +8882,25 @@
       <c r="AF53" s="52"/>
       <c r="AG53" s="52"/>
       <c r="AH53" s="52"/>
-      <c r="AI53" s="107">
+      <c r="AI53" s="105">
         <v>60972</v>
       </c>
-      <c r="AJ53" s="107">
+      <c r="AJ53" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK53" s="107">
+      <c r="AK53" s="105">
         <v>66972</v>
       </c>
-      <c r="AL53" s="107">
+      <c r="AL53" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM53" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN53" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO53" s="107"/>
+      <c r="AM53" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN53" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO53" s="105"/>
     </row>
     <row r="54" spans="1:41" s="59" customFormat="1">
       <c r="A54" s="52">
@@ -8978,25 +8977,25 @@
       <c r="AF54" s="52"/>
       <c r="AG54" s="52"/>
       <c r="AH54" s="52"/>
-      <c r="AI54" s="107">
+      <c r="AI54" s="105">
         <v>67012</v>
       </c>
-      <c r="AJ54" s="107">
+      <c r="AJ54" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK54" s="107">
+      <c r="AK54" s="105">
         <v>73012</v>
       </c>
-      <c r="AL54" s="107">
+      <c r="AL54" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM54" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN54" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO54" s="107"/>
+      <c r="AM54" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN54" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO54" s="105"/>
     </row>
     <row r="55" spans="1:41" s="59" customFormat="1">
       <c r="A55" s="52">
@@ -9073,25 +9072,25 @@
       <c r="AF55" s="52"/>
       <c r="AG55" s="52"/>
       <c r="AH55" s="52"/>
-      <c r="AI55" s="107">
+      <c r="AI55" s="105">
         <v>73052</v>
       </c>
-      <c r="AJ55" s="107">
+      <c r="AJ55" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK55" s="107">
+      <c r="AK55" s="105">
         <v>75452</v>
       </c>
-      <c r="AL55" s="107">
+      <c r="AL55" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM55" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN55" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO55" s="107"/>
+      <c r="AM55" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN55" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO55" s="105"/>
     </row>
     <row r="56" spans="1:41" s="59" customFormat="1">
       <c r="A56" s="52">
@@ -9168,25 +9167,25 @@
       <c r="AF56" s="52"/>
       <c r="AG56" s="52"/>
       <c r="AH56" s="52"/>
-      <c r="AI56" s="107">
+      <c r="AI56" s="105">
         <v>75492</v>
       </c>
-      <c r="AJ56" s="107">
+      <c r="AJ56" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK56" s="107">
+      <c r="AK56" s="105">
         <v>77892</v>
       </c>
-      <c r="AL56" s="107">
+      <c r="AL56" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM56" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN56" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO56" s="107"/>
+      <c r="AM56" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN56" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO56" s="105"/>
     </row>
     <row r="57" spans="1:41" s="59" customFormat="1">
       <c r="A57" s="52">
@@ -9263,25 +9262,25 @@
       <c r="AF57" s="52"/>
       <c r="AG57" s="52"/>
       <c r="AH57" s="52"/>
-      <c r="AI57" s="107">
+      <c r="AI57" s="105">
         <v>77919</v>
       </c>
-      <c r="AJ57" s="107">
+      <c r="AJ57" s="105">
         <v>-17184</v>
       </c>
-      <c r="AK57" s="107">
+      <c r="AK57" s="105">
         <v>79919</v>
       </c>
-      <c r="AL57" s="107">
+      <c r="AL57" s="105">
         <v>-17184</v>
       </c>
-      <c r="AM57" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN57" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO57" s="107"/>
+      <c r="AM57" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN57" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO57" s="105"/>
     </row>
     <row r="58" spans="1:41" s="59" customFormat="1">
       <c r="A58" s="52">
@@ -9374,13 +9373,13 @@
       <c r="AL58" s="5">
         <v>-17188</v>
       </c>
-      <c r="AM58" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN58" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO58" s="107">
+      <c r="AM58" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN58" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO58" s="105">
         <v>90</v>
       </c>
     </row>
@@ -9459,25 +9458,25 @@
       <c r="AF59" s="52"/>
       <c r="AG59" s="52"/>
       <c r="AH59" s="52"/>
-      <c r="AI59" s="107">
+      <c r="AI59" s="105">
         <v>82828</v>
       </c>
-      <c r="AJ59" s="107">
+      <c r="AJ59" s="105">
         <v>-13669</v>
       </c>
-      <c r="AK59" s="107">
+      <c r="AK59" s="105">
         <v>82828</v>
       </c>
-      <c r="AL59" s="107">
+      <c r="AL59" s="105">
         <v>-12096</v>
       </c>
-      <c r="AM59" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN59" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO59" s="107"/>
+      <c r="AM59" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN59" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO59" s="105"/>
     </row>
     <row r="60" spans="1:41" s="59" customFormat="1" ht="28">
       <c r="A60" s="52">
@@ -9645,9 +9644,9 @@
       <c r="AJ61" s="5"/>
       <c r="AK61" s="5"/>
       <c r="AL61" s="5"/>
-      <c r="AM61" s="97"/>
-      <c r="AN61" s="97"/>
-      <c r="AO61" s="97"/>
+      <c r="AM61" s="105"/>
+      <c r="AN61" s="105"/>
+      <c r="AO61" s="105"/>
     </row>
     <row r="62" spans="1:41" s="59" customFormat="1">
       <c r="A62" s="52">
@@ -9724,25 +9723,25 @@
       <c r="AF62" s="52"/>
       <c r="AG62" s="52"/>
       <c r="AH62" s="52"/>
-      <c r="AI62" s="107">
+      <c r="AI62" s="105">
         <v>82828</v>
       </c>
-      <c r="AJ62" s="107">
+      <c r="AJ62" s="105">
         <v>-12096</v>
       </c>
-      <c r="AK62" s="107">
+      <c r="AK62" s="105">
         <v>82828</v>
       </c>
-      <c r="AL62" s="107">
+      <c r="AL62" s="105">
         <v>-8467</v>
       </c>
-      <c r="AM62" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN62" s="107">
-        <v>500</v>
-      </c>
-      <c r="AO62" s="97">
+      <c r="AM62" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN62" s="105">
+        <v>500</v>
+      </c>
+      <c r="AO62" s="105">
         <v>90</v>
       </c>
     </row>
@@ -9821,22 +9820,22 @@
       <c r="AF63" s="52"/>
       <c r="AG63" s="52"/>
       <c r="AH63" s="52"/>
-      <c r="AI63" s="107">
+      <c r="AI63" s="105">
         <v>82828</v>
       </c>
-      <c r="AJ63" s="107">
+      <c r="AJ63" s="105">
         <v>-8467</v>
       </c>
-      <c r="AK63" s="107">
+      <c r="AK63" s="105">
         <v>82828</v>
       </c>
-      <c r="AL63" s="107">
+      <c r="AL63" s="105">
         <v>-6067</v>
       </c>
-      <c r="AM63" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN63" s="107">
+      <c r="AM63" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN63" s="105">
         <v>500</v>
       </c>
       <c r="AO63" s="52"/>
@@ -10085,22 +10084,22 @@
       <c r="AF66" s="52"/>
       <c r="AG66" s="52"/>
       <c r="AH66" s="52"/>
-      <c r="AI66" s="107">
+      <c r="AI66" s="105">
         <v>83935.5</v>
       </c>
-      <c r="AJ66" s="107">
+      <c r="AJ66" s="105">
         <v>-5543</v>
       </c>
-      <c r="AK66" s="107">
+      <c r="AK66" s="105">
         <v>84735</v>
       </c>
-      <c r="AL66" s="107">
+      <c r="AL66" s="105">
         <v>-6928.5</v>
       </c>
-      <c r="AM66" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN66" s="107">
+      <c r="AM66" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN66" s="105">
         <v>500</v>
       </c>
       <c r="AO66" s="52"/>
@@ -10180,22 +10179,22 @@
       <c r="AF67" s="52"/>
       <c r="AG67" s="52"/>
       <c r="AH67" s="52"/>
-      <c r="AI67" s="107">
+      <c r="AI67" s="105">
         <v>82828</v>
       </c>
-      <c r="AJ67" s="107">
+      <c r="AJ67" s="105">
         <v>-6067</v>
       </c>
-      <c r="AK67" s="107">
+      <c r="AK67" s="105">
         <v>82828</v>
       </c>
-      <c r="AL67" s="107">
+      <c r="AL67" s="105">
         <v>-2467</v>
       </c>
-      <c r="AM67" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN67" s="107">
+      <c r="AM67" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN67" s="105">
         <v>500</v>
       </c>
       <c r="AO67" s="52"/>
@@ -10291,10 +10290,10 @@
       <c r="AL68" s="52">
         <v>-2464</v>
       </c>
-      <c r="AM68" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN68" s="107">
+      <c r="AM68" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN68" s="105">
         <v>500</v>
       </c>
       <c r="AO68" s="52">
@@ -10382,22 +10381,22 @@
       <c r="AF69" s="52"/>
       <c r="AG69" s="52"/>
       <c r="AH69" s="52"/>
-      <c r="AI69" s="107">
+      <c r="AI69" s="105">
         <v>79975</v>
       </c>
-      <c r="AJ69" s="107">
+      <c r="AJ69" s="105">
         <v>392.5</v>
       </c>
-      <c r="AK69" s="107">
+      <c r="AK69" s="105">
         <v>77699</v>
       </c>
-      <c r="AL69" s="107">
+      <c r="AL69" s="105">
         <v>393</v>
       </c>
-      <c r="AM69" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN69" s="107">
+      <c r="AM69" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN69" s="105">
         <v>1220</v>
       </c>
       <c r="AO69" s="52"/>
@@ -10483,22 +10482,22 @@
       <c r="AF70" s="52"/>
       <c r="AG70" s="52"/>
       <c r="AH70" s="52"/>
-      <c r="AI70" s="107">
+      <c r="AI70" s="105">
         <v>77699</v>
       </c>
-      <c r="AJ70" s="107">
+      <c r="AJ70" s="105">
         <v>393</v>
       </c>
-      <c r="AK70" s="107">
+      <c r="AK70" s="105">
         <v>75366</v>
       </c>
-      <c r="AL70" s="107">
+      <c r="AL70" s="105">
         <v>392</v>
       </c>
-      <c r="AM70" s="107">
+      <c r="AM70" s="105">
         <v>1220</v>
       </c>
-      <c r="AN70" s="107">
+      <c r="AN70" s="105">
         <v>1983</v>
       </c>
       <c r="AO70" s="52"/>
@@ -10578,12 +10577,12 @@
       <c r="AF71" s="52"/>
       <c r="AG71" s="52"/>
       <c r="AH71" s="52"/>
-      <c r="AI71" s="97"/>
-      <c r="AJ71" s="97"/>
-      <c r="AK71" s="97"/>
-      <c r="AL71" s="97"/>
-      <c r="AM71" s="97"/>
-      <c r="AN71" s="97"/>
+      <c r="AI71" s="105"/>
+      <c r="AJ71" s="105"/>
+      <c r="AK71" s="105"/>
+      <c r="AL71" s="105"/>
+      <c r="AM71" s="105"/>
+      <c r="AN71" s="105"/>
       <c r="AO71" s="52"/>
     </row>
     <row r="72" spans="1:41" s="59" customFormat="1">
@@ -10664,12 +10663,12 @@
       <c r="AF72" s="52"/>
       <c r="AG72" s="52"/>
       <c r="AH72" s="52"/>
-      <c r="AI72" s="97"/>
-      <c r="AJ72" s="97"/>
-      <c r="AK72" s="97"/>
-      <c r="AL72" s="97"/>
-      <c r="AM72" s="97"/>
-      <c r="AN72" s="97"/>
+      <c r="AI72" s="105"/>
+      <c r="AJ72" s="105"/>
+      <c r="AK72" s="105"/>
+      <c r="AL72" s="105"/>
+      <c r="AM72" s="105"/>
+      <c r="AN72" s="105"/>
       <c r="AO72" s="52"/>
     </row>
     <row r="73" spans="1:41" s="59" customFormat="1">
@@ -10747,22 +10746,22 @@
       <c r="AF73" s="52"/>
       <c r="AG73" s="52"/>
       <c r="AH73" s="52"/>
-      <c r="AI73" s="97">
+      <c r="AI73" s="105">
         <v>75340</v>
       </c>
-      <c r="AJ73" s="97">
+      <c r="AJ73" s="105">
         <v>393</v>
       </c>
-      <c r="AK73" s="97">
+      <c r="AK73" s="105">
         <v>71340</v>
       </c>
-      <c r="AL73" s="97">
+      <c r="AL73" s="105">
         <v>393</v>
       </c>
-      <c r="AM73" s="97">
+      <c r="AM73" s="105">
         <v>1983</v>
       </c>
-      <c r="AN73" s="97">
+      <c r="AN73" s="105">
         <v>1983</v>
       </c>
       <c r="AO73" s="52"/>
@@ -10842,22 +10841,22 @@
       <c r="AF74" s="52"/>
       <c r="AG74" s="52"/>
       <c r="AH74" s="52"/>
-      <c r="AI74" s="107">
+      <c r="AI74" s="105">
         <v>71340</v>
       </c>
-      <c r="AJ74" s="98">
+      <c r="AJ74" s="105">
         <v>393</v>
       </c>
-      <c r="AK74" s="107">
+      <c r="AK74" s="105">
         <v>67340</v>
       </c>
-      <c r="AL74" s="98">
+      <c r="AL74" s="105">
         <v>393</v>
       </c>
-      <c r="AM74" s="107">
+      <c r="AM74" s="105">
         <v>1983</v>
       </c>
-      <c r="AN74" s="107">
+      <c r="AN74" s="105">
         <v>1983</v>
       </c>
       <c r="AO74" s="52"/>
@@ -10937,22 +10936,22 @@
       <c r="AF75" s="52"/>
       <c r="AG75" s="52"/>
       <c r="AH75" s="52"/>
-      <c r="AI75" s="107">
+      <c r="AI75" s="105">
         <v>67340</v>
       </c>
-      <c r="AJ75" s="107">
+      <c r="AJ75" s="105">
         <v>393</v>
       </c>
-      <c r="AK75" s="107">
+      <c r="AK75" s="105">
         <v>63340</v>
       </c>
-      <c r="AL75" s="107">
+      <c r="AL75" s="105">
         <v>393</v>
       </c>
-      <c r="AM75" s="107">
+      <c r="AM75" s="105">
         <v>1983</v>
       </c>
-      <c r="AN75" s="107">
+      <c r="AN75" s="105">
         <v>1983</v>
       </c>
       <c r="AO75" s="52"/>
@@ -11034,22 +11033,22 @@
       <c r="AF76" s="52"/>
       <c r="AG76" s="52"/>
       <c r="AH76" s="52"/>
-      <c r="AI76" s="107">
+      <c r="AI76" s="105">
         <v>63340</v>
       </c>
-      <c r="AJ76" s="107">
+      <c r="AJ76" s="105">
         <v>393</v>
       </c>
-      <c r="AK76" s="107">
+      <c r="AK76" s="105">
         <v>60940</v>
       </c>
-      <c r="AL76" s="107">
+      <c r="AL76" s="105">
         <v>393</v>
       </c>
-      <c r="AM76" s="107">
+      <c r="AM76" s="105">
         <v>1983</v>
       </c>
-      <c r="AN76" s="107">
+      <c r="AN76" s="105">
         <v>1983</v>
       </c>
       <c r="AO76" s="52"/>
@@ -11131,22 +11130,22 @@
       <c r="AF77" s="52"/>
       <c r="AG77" s="52"/>
       <c r="AH77" s="52"/>
-      <c r="AI77" s="107">
+      <c r="AI77" s="105">
         <v>60940</v>
       </c>
-      <c r="AJ77" s="107">
+      <c r="AJ77" s="105">
         <v>393</v>
       </c>
-      <c r="AK77" s="107">
+      <c r="AK77" s="105">
         <v>59340</v>
       </c>
-      <c r="AL77" s="107">
+      <c r="AL77" s="105">
         <v>393</v>
       </c>
-      <c r="AM77" s="107">
+      <c r="AM77" s="105">
         <v>1983</v>
       </c>
-      <c r="AN77" s="107">
+      <c r="AN77" s="105">
         <v>1983</v>
       </c>
       <c r="AO77" s="52"/>
@@ -11226,22 +11225,22 @@
       <c r="AF78" s="52"/>
       <c r="AG78" s="52"/>
       <c r="AH78" s="52"/>
-      <c r="AI78" s="107">
+      <c r="AI78" s="105">
         <v>59340</v>
       </c>
-      <c r="AJ78" s="107">
+      <c r="AJ78" s="105">
         <v>393</v>
       </c>
-      <c r="AK78" s="107">
+      <c r="AK78" s="105">
         <v>56940</v>
       </c>
-      <c r="AL78" s="107">
+      <c r="AL78" s="105">
         <v>393</v>
       </c>
-      <c r="AM78" s="107">
+      <c r="AM78" s="105">
         <v>1983</v>
       </c>
-      <c r="AN78" s="107">
+      <c r="AN78" s="105">
         <v>1983</v>
       </c>
       <c r="AO78" s="52"/>
@@ -11491,22 +11490,22 @@
       <c r="AF81" s="52"/>
       <c r="AG81" s="52"/>
       <c r="AH81" s="52"/>
-      <c r="AI81" s="107">
+      <c r="AI81" s="105">
         <v>56940</v>
       </c>
-      <c r="AJ81" s="107">
+      <c r="AJ81" s="105">
         <v>393</v>
       </c>
-      <c r="AK81" s="107">
+      <c r="AK81" s="105">
         <v>54540</v>
       </c>
-      <c r="AL81" s="107">
+      <c r="AL81" s="105">
         <v>393</v>
       </c>
-      <c r="AM81" s="107">
+      <c r="AM81" s="105">
         <v>1983</v>
       </c>
-      <c r="AN81" s="107">
+      <c r="AN81" s="105">
         <v>1983</v>
       </c>
       <c r="AO81" s="52"/>
@@ -11755,22 +11754,22 @@
       <c r="AF84" s="52"/>
       <c r="AG84" s="52"/>
       <c r="AH84" s="52"/>
-      <c r="AI84" s="107">
+      <c r="AI84" s="105">
         <v>55676.5</v>
       </c>
-      <c r="AJ84" s="107">
+      <c r="AJ84" s="105">
         <v>2479</v>
       </c>
-      <c r="AK84" s="107">
+      <c r="AK84" s="105">
         <v>53944.5</v>
       </c>
-      <c r="AL84" s="107">
+      <c r="AL84" s="105">
         <v>1479</v>
       </c>
-      <c r="AM84" s="107">
+      <c r="AM84" s="105">
         <v>1983</v>
       </c>
-      <c r="AN84" s="107">
+      <c r="AN84" s="105">
         <v>1983</v>
       </c>
       <c r="AO84" s="52"/>
@@ -11850,22 +11849,22 @@
       <c r="AF85" s="52"/>
       <c r="AG85" s="52"/>
       <c r="AH85" s="52"/>
-      <c r="AI85" s="107">
+      <c r="AI85" s="105">
         <v>54540</v>
       </c>
-      <c r="AJ85" s="107">
+      <c r="AJ85" s="105">
         <v>393</v>
       </c>
-      <c r="AK85" s="107">
+      <c r="AK85" s="105">
         <v>50940</v>
       </c>
-      <c r="AL85" s="107">
+      <c r="AL85" s="105">
         <v>393</v>
       </c>
-      <c r="AM85" s="107">
+      <c r="AM85" s="105">
         <v>1983</v>
       </c>
-      <c r="AN85" s="107">
+      <c r="AN85" s="105">
         <v>1983</v>
       </c>
       <c r="AO85" s="52"/>
@@ -11945,22 +11944,22 @@
       <c r="AF86" s="52"/>
       <c r="AG86" s="52"/>
       <c r="AH86" s="52"/>
-      <c r="AI86" s="107">
+      <c r="AI86" s="105">
         <v>50940</v>
       </c>
-      <c r="AJ86" s="107">
+      <c r="AJ86" s="105">
         <v>393</v>
       </c>
-      <c r="AK86" s="107">
+      <c r="AK86" s="105">
         <v>49340</v>
       </c>
-      <c r="AL86" s="107">
+      <c r="AL86" s="105">
         <v>393</v>
       </c>
-      <c r="AM86" s="107">
+      <c r="AM86" s="105">
         <v>1983</v>
       </c>
-      <c r="AN86" s="107">
+      <c r="AN86" s="105">
         <v>1983</v>
       </c>
       <c r="AO86" s="52"/>
@@ -12210,22 +12209,22 @@
       <c r="AF89" s="52"/>
       <c r="AG89" s="52"/>
       <c r="AH89" s="52"/>
-      <c r="AI89" s="107">
+      <c r="AI89" s="105">
         <v>49340</v>
       </c>
-      <c r="AJ89" s="107">
+      <c r="AJ89" s="105">
         <v>393</v>
       </c>
-      <c r="AK89" s="107">
+      <c r="AK89" s="105">
         <v>45740</v>
       </c>
-      <c r="AL89" s="107">
+      <c r="AL89" s="105">
         <v>393</v>
       </c>
-      <c r="AM89" s="107">
+      <c r="AM89" s="105">
         <v>1983</v>
       </c>
-      <c r="AN89" s="107">
+      <c r="AN89" s="105">
         <v>1983</v>
       </c>
       <c r="AO89" s="52"/>
@@ -12311,22 +12310,22 @@
       <c r="AF90" s="52"/>
       <c r="AG90" s="52"/>
       <c r="AH90" s="52"/>
-      <c r="AI90" s="107">
+      <c r="AI90" s="105">
         <v>45717.5</v>
       </c>
-      <c r="AJ90" s="107">
+      <c r="AJ90" s="105">
         <v>392</v>
       </c>
-      <c r="AK90" s="107">
+      <c r="AK90" s="105">
         <v>43392</v>
       </c>
-      <c r="AL90" s="107">
+      <c r="AL90" s="105">
         <v>393</v>
       </c>
-      <c r="AM90" s="107">
+      <c r="AM90" s="105">
         <v>1983</v>
       </c>
-      <c r="AN90" s="107">
+      <c r="AN90" s="105">
         <v>1260</v>
       </c>
       <c r="AO90" s="52"/>
@@ -12412,22 +12411,22 @@
       <c r="AF91" s="52"/>
       <c r="AG91" s="52"/>
       <c r="AH91" s="52"/>
-      <c r="AI91" s="107">
+      <c r="AI91" s="105">
         <v>43392</v>
       </c>
-      <c r="AJ91" s="107">
+      <c r="AJ91" s="105">
         <v>393</v>
       </c>
-      <c r="AK91" s="107">
+      <c r="AK91" s="105">
         <v>41110.5</v>
       </c>
-      <c r="AL91" s="107">
+      <c r="AL91" s="105">
         <v>391</v>
       </c>
-      <c r="AM91" s="107">
+      <c r="AM91" s="105">
         <v>1260</v>
       </c>
-      <c r="AN91" s="107">
+      <c r="AN91" s="105">
         <v>500</v>
       </c>
       <c r="AO91" s="52"/>
@@ -12523,10 +12522,10 @@
       <c r="AL92" s="52">
         <v>386</v>
       </c>
-      <c r="AM92" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN92" s="107">
+      <c r="AM92" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN92" s="105">
         <v>500</v>
       </c>
       <c r="AO92" s="52">
@@ -12608,22 +12607,22 @@
       <c r="AF93" s="52"/>
       <c r="AG93" s="52"/>
       <c r="AH93" s="52"/>
-      <c r="AI93" s="107">
+      <c r="AI93" s="105">
         <v>37665</v>
       </c>
-      <c r="AJ93" s="107">
+      <c r="AJ93" s="105">
         <v>-2463</v>
       </c>
-      <c r="AK93" s="107">
+      <c r="AK93" s="105">
         <v>37665</v>
       </c>
-      <c r="AL93" s="107">
+      <c r="AL93" s="105">
         <v>-6063</v>
       </c>
-      <c r="AM93" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN93" s="107">
+      <c r="AM93" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN93" s="105">
         <v>500</v>
       </c>
       <c r="AO93" s="52"/>
@@ -12703,22 +12702,22 @@
       <c r="AF94" s="52"/>
       <c r="AG94" s="52"/>
       <c r="AH94" s="52"/>
-      <c r="AI94" s="107">
+      <c r="AI94" s="105">
         <v>39897.5</v>
       </c>
-      <c r="AJ94" s="107">
+      <c r="AJ94" s="105">
         <v>-22663</v>
       </c>
-      <c r="AK94" s="107">
+      <c r="AK94" s="105">
         <v>38502.5</v>
       </c>
-      <c r="AL94" s="107">
+      <c r="AL94" s="105">
         <v>-23463</v>
       </c>
-      <c r="AM94" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN94" s="107">
+      <c r="AM94" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN94" s="105">
         <v>500</v>
       </c>
       <c r="AO94" s="52"/>
@@ -12798,22 +12797,22 @@
       <c r="AF95" s="52"/>
       <c r="AG95" s="52"/>
       <c r="AH95" s="52"/>
-      <c r="AI95" s="107">
+      <c r="AI95" s="105">
         <v>41966.5</v>
       </c>
-      <c r="AJ95" s="107">
+      <c r="AJ95" s="105">
         <v>-21463</v>
       </c>
-      <c r="AK95" s="107">
+      <c r="AK95" s="105">
         <v>39897.5</v>
       </c>
-      <c r="AL95" s="107">
+      <c r="AL95" s="105">
         <v>-22663</v>
       </c>
-      <c r="AM95" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN95" s="107">
+      <c r="AM95" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN95" s="105">
         <v>500</v>
       </c>
       <c r="AO95" s="52"/>
@@ -12893,22 +12892,22 @@
       <c r="AF96" s="52"/>
       <c r="AG96" s="52"/>
       <c r="AH96" s="52"/>
-      <c r="AI96" s="107">
+      <c r="AI96" s="105">
         <v>43352.5</v>
       </c>
-      <c r="AJ96" s="107">
+      <c r="AJ96" s="105">
         <v>-20663</v>
       </c>
-      <c r="AK96" s="107">
+      <c r="AK96" s="105">
         <v>41966.5</v>
       </c>
-      <c r="AL96" s="107">
+      <c r="AL96" s="105">
         <v>-21463</v>
       </c>
-      <c r="AM96" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN96" s="107">
+      <c r="AM96" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN96" s="105">
         <v>500</v>
       </c>
       <c r="AO96" s="52"/>
@@ -12988,22 +12987,22 @@
       <c r="AF97" s="52"/>
       <c r="AG97" s="52"/>
       <c r="AH97" s="52"/>
-      <c r="AI97" s="107">
+      <c r="AI97" s="105">
         <v>44738.5</v>
       </c>
-      <c r="AJ97" s="107">
+      <c r="AJ97" s="105">
         <v>-19863</v>
       </c>
-      <c r="AK97" s="107">
+      <c r="AK97" s="105">
         <v>43352.5</v>
       </c>
-      <c r="AL97" s="107">
+      <c r="AL97" s="105">
         <v>-20663</v>
       </c>
-      <c r="AM97" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN97" s="107">
+      <c r="AM97" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN97" s="105">
         <v>500</v>
       </c>
       <c r="AO97" s="52"/>
@@ -13083,22 +13082,22 @@
       <c r="AF98" s="52"/>
       <c r="AG98" s="52"/>
       <c r="AH98" s="52"/>
-      <c r="AI98" s="107">
+      <c r="AI98" s="105">
         <v>44738.5</v>
       </c>
-      <c r="AJ98" s="107">
+      <c r="AJ98" s="105">
         <v>-19863</v>
       </c>
-      <c r="AK98" s="107">
+      <c r="AK98" s="105">
         <v>46123.5</v>
       </c>
-      <c r="AL98" s="107">
+      <c r="AL98" s="105">
         <v>-19063</v>
       </c>
-      <c r="AM98" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN98" s="107">
+      <c r="AM98" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN98" s="105">
         <v>500</v>
       </c>
       <c r="AO98" s="52"/>
@@ -13163,12 +13162,12 @@
       <c r="AF99" s="52"/>
       <c r="AG99" s="52"/>
       <c r="AH99" s="52"/>
-      <c r="AI99" s="97"/>
-      <c r="AJ99" s="97"/>
-      <c r="AK99" s="97"/>
-      <c r="AL99" s="97"/>
-      <c r="AM99" s="97"/>
-      <c r="AN99" s="97"/>
+      <c r="AI99" s="105"/>
+      <c r="AJ99" s="105"/>
+      <c r="AK99" s="105"/>
+      <c r="AL99" s="105"/>
+      <c r="AM99" s="105"/>
+      <c r="AN99" s="105"/>
       <c r="AO99" s="52"/>
     </row>
     <row r="100" spans="1:41" s="59" customFormat="1">
@@ -13231,12 +13230,12 @@
       <c r="AF100" s="52"/>
       <c r="AG100" s="52"/>
       <c r="AH100" s="52"/>
-      <c r="AI100" s="97"/>
-      <c r="AJ100" s="97"/>
-      <c r="AK100" s="97"/>
-      <c r="AL100" s="97"/>
-      <c r="AM100" s="97"/>
-      <c r="AN100" s="97"/>
+      <c r="AI100" s="105"/>
+      <c r="AJ100" s="105"/>
+      <c r="AK100" s="105"/>
+      <c r="AL100" s="105"/>
+      <c r="AM100" s="105"/>
+      <c r="AN100" s="105"/>
       <c r="AO100" s="52"/>
     </row>
     <row r="101" spans="1:41" s="59" customFormat="1">
@@ -13299,12 +13298,12 @@
       <c r="AF101" s="52"/>
       <c r="AG101" s="52"/>
       <c r="AH101" s="52"/>
-      <c r="AI101" s="97"/>
-      <c r="AJ101" s="97"/>
-      <c r="AK101" s="97"/>
-      <c r="AL101" s="97"/>
-      <c r="AM101" s="97"/>
-      <c r="AN101" s="97"/>
+      <c r="AI101" s="105"/>
+      <c r="AJ101" s="105"/>
+      <c r="AK101" s="105"/>
+      <c r="AL101" s="105"/>
+      <c r="AM101" s="105"/>
+      <c r="AN101" s="105"/>
       <c r="AO101" s="52"/>
     </row>
     <row r="102" spans="1:41" s="59" customFormat="1">
@@ -13382,22 +13381,22 @@
       <c r="AF102" s="52"/>
       <c r="AG102" s="52"/>
       <c r="AH102" s="52"/>
-      <c r="AI102" s="107">
+      <c r="AI102" s="105">
         <v>47509.5</v>
       </c>
-      <c r="AJ102" s="107">
+      <c r="AJ102" s="105">
         <v>-18263</v>
       </c>
-      <c r="AK102" s="107">
+      <c r="AK102" s="105">
         <v>46123.5</v>
       </c>
-      <c r="AL102" s="107">
+      <c r="AL102" s="105">
         <v>-19063</v>
       </c>
-      <c r="AM102" s="107">
-        <v>500</v>
-      </c>
-      <c r="AN102" s="107">
+      <c r="AM102" s="105">
+        <v>500</v>
+      </c>
+      <c r="AN102" s="105">
         <v>500</v>
       </c>
       <c r="AO102" s="52"/>
@@ -13477,22 +13476,22 @@
       <c r="AF103" s="52"/>
       <c r="AG103" s="52"/>
       <c r="AH103" s="52"/>
-      <c r="AI103" s="107">
+      <c r="AI103" s="105">
         <v>72539.5</v>
       </c>
-      <c r="AJ103" s="107">
+      <c r="AJ103" s="105">
         <v>-715</v>
       </c>
-      <c r="AK103" s="107">
+      <c r="AK103" s="105">
         <v>71154.5</v>
       </c>
-      <c r="AL103" s="107">
+      <c r="AL103" s="105">
         <v>-1515</v>
       </c>
-      <c r="AM103" s="107">
+      <c r="AM103" s="105">
         <v>1983</v>
       </c>
-      <c r="AN103" s="107">
+      <c r="AN103" s="105">
         <v>1983</v>
       </c>
       <c r="AO103" s="52"/>
@@ -13588,10 +13587,10 @@
       <c r="AL104" s="52">
         <v>-1522</v>
       </c>
-      <c r="AM104" s="107">
+      <c r="AM104" s="105">
         <v>1983</v>
       </c>
-      <c r="AN104" s="107">
+      <c r="AN104" s="105">
         <v>1983</v>
       </c>
       <c r="AO104" s="52">
@@ -13673,22 +13672,22 @@
       <c r="AF105" s="52"/>
       <c r="AG105" s="52"/>
       <c r="AH105" s="52"/>
-      <c r="AI105" s="107">
+      <c r="AI105" s="105">
         <v>68827</v>
       </c>
-      <c r="AJ105" s="107">
+      <c r="AJ105" s="105">
         <v>-1817</v>
       </c>
-      <c r="AK105" s="107">
+      <c r="AK105" s="105">
         <v>67227</v>
       </c>
-      <c r="AL105" s="107">
+      <c r="AL105" s="105">
         <v>-1817</v>
       </c>
-      <c r="AM105" s="107">
+      <c r="AM105" s="105">
         <v>1983</v>
       </c>
-      <c r="AN105" s="107">
+      <c r="AN105" s="105">
         <v>1983</v>
       </c>
       <c r="AO105" s="52"/>
@@ -13762,22 +13761,22 @@
       <c r="AF106" s="52"/>
       <c r="AG106" s="52"/>
       <c r="AH106" s="52"/>
-      <c r="AI106" s="107">
+      <c r="AI106" s="105">
         <v>67156</v>
       </c>
-      <c r="AJ106" s="107">
+      <c r="AJ106" s="105">
         <v>-1798</v>
       </c>
-      <c r="AK106" s="107">
+      <c r="AK106" s="105">
         <v>64708</v>
       </c>
-      <c r="AL106" s="107">
+      <c r="AL106" s="105">
         <v>-1798</v>
       </c>
-      <c r="AM106" s="107">
+      <c r="AM106" s="105">
         <v>1983</v>
       </c>
-      <c r="AN106" s="107">
+      <c r="AN106" s="105">
         <v>1983</v>
       </c>
       <c r="AO106" s="52"/>
@@ -13923,12 +13922,12 @@
       <c r="AF108" s="52"/>
       <c r="AG108" s="52"/>
       <c r="AH108" s="52"/>
-      <c r="AI108" s="97"/>
-      <c r="AJ108" s="97"/>
-      <c r="AK108" s="97"/>
-      <c r="AL108" s="97"/>
-      <c r="AM108" s="97"/>
-      <c r="AN108" s="97"/>
+      <c r="AI108" s="105"/>
+      <c r="AJ108" s="105"/>
+      <c r="AK108" s="105"/>
+      <c r="AL108" s="105"/>
+      <c r="AM108" s="105"/>
+      <c r="AN108" s="105"/>
       <c r="AO108" s="52"/>
     </row>
     <row r="109" spans="1:41" s="59" customFormat="1">
@@ -14006,22 +14005,22 @@
       <c r="AF109" s="52"/>
       <c r="AG109" s="52"/>
       <c r="AH109" s="52"/>
-      <c r="AI109" s="107">
+      <c r="AI109" s="105">
         <v>64622</v>
       </c>
-      <c r="AJ109" s="107">
+      <c r="AJ109" s="105">
         <v>-1817</v>
       </c>
-      <c r="AK109" s="107">
+      <c r="AK109" s="105">
         <v>63022</v>
       </c>
-      <c r="AL109" s="107">
+      <c r="AL109" s="105">
         <v>-1817</v>
       </c>
-      <c r="AM109" s="107">
+      <c r="AM109" s="105">
         <v>1983</v>
       </c>
-      <c r="AN109" s="107">
+      <c r="AN109" s="105">
         <v>1983</v>
       </c>
       <c r="AO109" s="52"/>
@@ -14117,10 +14116,10 @@
       <c r="AL110" s="52">
         <v>-1802.5</v>
       </c>
-      <c r="AM110" s="107">
+      <c r="AM110" s="105">
         <v>1983</v>
       </c>
-      <c r="AN110" s="107">
+      <c r="AN110" s="105">
         <v>1983</v>
       </c>
       <c r="AO110" s="52">
@@ -14202,22 +14201,22 @@
       <c r="AF111" s="52"/>
       <c r="AG111" s="52"/>
       <c r="AH111" s="52"/>
-      <c r="AI111" s="107">
+      <c r="AI111" s="105">
         <v>60682.5</v>
       </c>
-      <c r="AJ111" s="107">
+      <c r="AJ111" s="105">
         <v>-1507</v>
       </c>
-      <c r="AK111" s="107">
+      <c r="AK111" s="105">
         <v>59297.5</v>
       </c>
-      <c r="AL111" s="107">
+      <c r="AL111" s="105">
         <v>-707</v>
       </c>
-      <c r="AM111" s="107">
+      <c r="AM111" s="105">
         <v>1983</v>
       </c>
-      <c r="AN111" s="107">
+      <c r="AN111" s="105">
         <v>1983</v>
       </c>
       <c r="AO111" s="52"/>
@@ -14616,9 +14615,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AO112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AR13" sqref="AR13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -14630,32 +14629,32 @@
     <col min="6" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.4140625" style="2" customWidth="1"/>
     <col min="9" max="10" width="23" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="11.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="5.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="7.58203125" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="7.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="9" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="12.08203125" style="105" customWidth="1"/>
-    <col min="36" max="36" width="11.08203125" style="105" customWidth="1"/>
-    <col min="37" max="37" width="11.58203125" style="105" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" style="105" customWidth="1"/>
-    <col min="39" max="39" width="11.58203125" style="105" customWidth="1"/>
-    <col min="40" max="40" width="11.25" style="105" customWidth="1"/>
-    <col min="41" max="41" width="9" style="106" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="14" width="11.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="20" width="5.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.58203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="1" customWidth="1"/>
+    <col min="30" max="30" width="7.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9" customWidth="1"/>
+    <col min="33" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.08203125" style="103" customWidth="1"/>
+    <col min="36" max="36" width="11.08203125" style="103" customWidth="1"/>
+    <col min="37" max="37" width="11.58203125" style="103" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" style="103" customWidth="1"/>
+    <col min="39" max="39" width="11.58203125" style="103" customWidth="1"/>
+    <col min="40" max="40" width="11.25" style="103" customWidth="1"/>
+    <col min="41" max="41" width="9" style="104" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14687,7 +14686,7 @@
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="98" t="s">
         <v>569</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -14762,25 +14761,25 @@
       <c r="AH1" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="AI1" s="100" t="s">
+      <c r="AI1" s="106" t="s">
         <v>538</v>
       </c>
-      <c r="AJ1" s="100" t="s">
+      <c r="AJ1" s="106" t="s">
         <v>539</v>
       </c>
-      <c r="AK1" s="100" t="s">
+      <c r="AK1" s="106" t="s">
         <v>540</v>
       </c>
-      <c r="AL1" s="100" t="s">
+      <c r="AL1" s="106" t="s">
         <v>541</v>
       </c>
-      <c r="AM1" s="132" t="s">
+      <c r="AM1" s="106" t="s">
         <v>572</v>
       </c>
-      <c r="AN1" s="132" t="s">
+      <c r="AN1" s="106" t="s">
         <v>573</v>
       </c>
-      <c r="AO1" s="133" t="s">
+      <c r="AO1" s="107" t="s">
         <v>574</v>
       </c>
     </row>
@@ -14857,16 +14856,16 @@
       <c r="AF2" s="81"/>
       <c r="AG2" s="78"/>
       <c r="AH2" s="52"/>
-      <c r="AI2" s="100">
+      <c r="AI2" s="99">
         <v>68518</v>
       </c>
-      <c r="AJ2" s="100">
+      <c r="AJ2" s="99">
         <v>-3438</v>
       </c>
-      <c r="AK2" s="100">
+      <c r="AK2" s="99">
         <v>63017</v>
       </c>
-      <c r="AL2" s="100">
+      <c r="AL2" s="99">
         <v>-3438</v>
       </c>
       <c r="AM2" s="5">
@@ -14875,7 +14874,7 @@
       <c r="AN2" s="5">
         <v>1506</v>
       </c>
-      <c r="AO2" s="101"/>
+      <c r="AO2" s="100"/>
     </row>
     <row r="3" spans="1:41" s="82" customFormat="1">
       <c r="A3" s="52">
@@ -14938,13 +14937,13 @@
       <c r="AF3" s="81"/>
       <c r="AG3" s="78"/>
       <c r="AH3" s="52"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="134"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="100"/>
     </row>
     <row r="4" spans="1:41" s="82" customFormat="1">
       <c r="A4" s="52">
@@ -15023,16 +15022,16 @@
       <c r="AF4" s="81"/>
       <c r="AG4" s="78"/>
       <c r="AH4" s="52"/>
-      <c r="AI4" s="100">
+      <c r="AI4" s="99">
         <v>63017</v>
       </c>
-      <c r="AJ4" s="100">
+      <c r="AJ4" s="99">
         <v>-3438</v>
       </c>
-      <c r="AK4" s="100">
+      <c r="AK4" s="99">
         <v>51052</v>
       </c>
-      <c r="AL4" s="100">
+      <c r="AL4" s="99">
         <v>-3438</v>
       </c>
       <c r="AM4" s="5">
@@ -15041,7 +15040,7 @@
       <c r="AN4" s="5">
         <v>1704</v>
       </c>
-      <c r="AO4" s="101"/>
+      <c r="AO4" s="100"/>
     </row>
     <row r="5" spans="1:41" s="82" customFormat="1">
       <c r="A5" s="52">
@@ -15116,16 +15115,16 @@
       <c r="AF5" s="81"/>
       <c r="AG5" s="78"/>
       <c r="AH5" s="52"/>
-      <c r="AI5" s="100">
+      <c r="AI5" s="99">
         <v>51052</v>
       </c>
-      <c r="AJ5" s="100">
+      <c r="AJ5" s="99">
         <v>-3438</v>
       </c>
-      <c r="AK5" s="100">
+      <c r="AK5" s="99">
         <v>49398</v>
       </c>
-      <c r="AL5" s="100">
+      <c r="AL5" s="99">
         <v>-5202</v>
       </c>
       <c r="AM5" s="5">
@@ -15134,7 +15133,7 @@
       <c r="AN5" s="5">
         <v>1704</v>
       </c>
-      <c r="AO5" s="102">
+      <c r="AO5" s="101">
         <v>90</v>
       </c>
     </row>
@@ -15211,16 +15210,16 @@
       <c r="AF6" s="81"/>
       <c r="AG6" s="78"/>
       <c r="AH6" s="52"/>
-      <c r="AI6" s="100">
+      <c r="AI6" s="99">
         <v>49398</v>
       </c>
-      <c r="AJ6" s="100">
+      <c r="AJ6" s="99">
         <v>-5202</v>
       </c>
-      <c r="AK6" s="100">
+      <c r="AK6" s="99">
         <v>49398</v>
       </c>
-      <c r="AL6" s="100">
+      <c r="AL6" s="99">
         <v>-10991</v>
       </c>
       <c r="AM6" s="5">
@@ -15229,7 +15228,7 @@
       <c r="AN6" s="5">
         <v>1704</v>
       </c>
-      <c r="AO6" s="101"/>
+      <c r="AO6" s="100"/>
     </row>
     <row r="7" spans="1:41" s="82" customFormat="1">
       <c r="A7" s="52">
@@ -15304,16 +15303,16 @@
       <c r="AF7" s="81"/>
       <c r="AG7" s="78"/>
       <c r="AH7" s="52"/>
-      <c r="AI7" s="100">
+      <c r="AI7" s="99">
         <v>49398</v>
       </c>
-      <c r="AJ7" s="100">
+      <c r="AJ7" s="99">
         <v>-10991</v>
       </c>
-      <c r="AK7" s="100">
+      <c r="AK7" s="99">
         <v>49398</v>
       </c>
-      <c r="AL7" s="100">
+      <c r="AL7" s="99">
         <v>-17889</v>
       </c>
       <c r="AM7" s="5">
@@ -15322,7 +15321,7 @@
       <c r="AN7" s="5">
         <v>1704</v>
       </c>
-      <c r="AO7" s="101"/>
+      <c r="AO7" s="100"/>
     </row>
     <row r="8" spans="1:41" s="82" customFormat="1">
       <c r="A8" s="52">
@@ -15401,16 +15400,16 @@
       <c r="AF8" s="81"/>
       <c r="AG8" s="78"/>
       <c r="AH8" s="52"/>
-      <c r="AI8" s="100">
+      <c r="AI8" s="99">
         <v>49398</v>
       </c>
-      <c r="AJ8" s="100">
+      <c r="AJ8" s="99">
         <v>-17889</v>
       </c>
-      <c r="AK8" s="100">
+      <c r="AK8" s="99">
         <v>49398</v>
       </c>
-      <c r="AL8" s="100">
+      <c r="AL8" s="99">
         <v>-23650</v>
       </c>
       <c r="AM8" s="5">
@@ -15419,7 +15418,7 @@
       <c r="AN8" s="5">
         <v>1452</v>
       </c>
-      <c r="AO8" s="101"/>
+      <c r="AO8" s="100"/>
     </row>
     <row r="9" spans="1:41" s="82" customFormat="1">
       <c r="A9" s="52">
@@ -15494,16 +15493,16 @@
       <c r="AF9" s="81"/>
       <c r="AG9" s="78"/>
       <c r="AH9" s="52"/>
-      <c r="AI9" s="100">
+      <c r="AI9" s="99">
         <v>49426</v>
       </c>
-      <c r="AJ9" s="100">
+      <c r="AJ9" s="99">
         <v>-23665</v>
       </c>
-      <c r="AK9" s="100">
+      <c r="AK9" s="99">
         <v>50416</v>
       </c>
-      <c r="AL9" s="100">
+      <c r="AL9" s="99">
         <v>-25412.5</v>
       </c>
       <c r="AM9" s="5">
@@ -15512,7 +15511,7 @@
       <c r="AN9" s="5">
         <v>1454</v>
       </c>
-      <c r="AO9" s="102">
+      <c r="AO9" s="101">
         <v>60</v>
       </c>
     </row>
@@ -15589,16 +15588,16 @@
       <c r="AF10" s="81"/>
       <c r="AG10" s="78"/>
       <c r="AH10" s="52"/>
-      <c r="AI10" s="100">
+      <c r="AI10" s="99">
         <v>50416</v>
       </c>
-      <c r="AJ10" s="100">
+      <c r="AJ10" s="99">
         <v>-25412.5</v>
       </c>
-      <c r="AK10" s="100">
+      <c r="AK10" s="99">
         <v>52431</v>
       </c>
-      <c r="AL10" s="100">
+      <c r="AL10" s="99">
         <v>-25366</v>
       </c>
       <c r="AM10" s="5">
@@ -15607,7 +15606,7 @@
       <c r="AN10" s="5">
         <v>1454</v>
       </c>
-      <c r="AO10" s="102">
+      <c r="AO10" s="101">
         <v>60</v>
       </c>
     </row>
@@ -15684,16 +15683,16 @@
       <c r="AF11" s="81"/>
       <c r="AG11" s="78"/>
       <c r="AH11" s="52"/>
-      <c r="AI11" s="100">
+      <c r="AI11" s="99">
         <v>52431</v>
       </c>
-      <c r="AJ11" s="100">
+      <c r="AJ11" s="99">
         <v>-25366</v>
       </c>
-      <c r="AK11" s="100">
+      <c r="AK11" s="99">
         <v>53468.5</v>
       </c>
-      <c r="AL11" s="100">
+      <c r="AL11" s="99">
         <v>-24776</v>
       </c>
       <c r="AM11" s="5">
@@ -15702,7 +15701,7 @@
       <c r="AN11" s="5">
         <v>1454</v>
       </c>
-      <c r="AO11" s="101"/>
+      <c r="AO11" s="100"/>
     </row>
     <row r="12" spans="1:41" s="82" customFormat="1">
       <c r="A12" s="52">
@@ -15777,16 +15776,16 @@
       <c r="AF12" s="81"/>
       <c r="AG12" s="78"/>
       <c r="AH12" s="52"/>
-      <c r="AI12" s="100">
+      <c r="AI12" s="99">
         <v>53468.5</v>
       </c>
-      <c r="AJ12" s="100">
+      <c r="AJ12" s="99">
         <v>-24776</v>
       </c>
-      <c r="AK12" s="100">
+      <c r="AK12" s="99">
         <v>54506.5</v>
       </c>
-      <c r="AL12" s="100">
+      <c r="AL12" s="99">
         <v>-24177</v>
       </c>
       <c r="AM12" s="5">
@@ -15795,7 +15794,7 @@
       <c r="AN12" s="5">
         <v>1454</v>
       </c>
-      <c r="AO12" s="101"/>
+      <c r="AO12" s="100"/>
     </row>
     <row r="13" spans="1:41" s="82" customFormat="1">
       <c r="A13" s="52">
@@ -15864,13 +15863,13 @@
       <c r="AF13" s="81"/>
       <c r="AG13" s="78"/>
       <c r="AH13" s="52"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="100"/>
-      <c r="AL13" s="100"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="134"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="100"/>
     </row>
     <row r="14" spans="1:41" s="82" customFormat="1">
       <c r="A14" s="52">
@@ -15945,16 +15944,16 @@
       <c r="AF14" s="81"/>
       <c r="AG14" s="78"/>
       <c r="AH14" s="52"/>
-      <c r="AI14" s="100">
+      <c r="AI14" s="99">
         <v>54506.5</v>
       </c>
-      <c r="AJ14" s="100">
+      <c r="AJ14" s="99">
         <v>-24177</v>
       </c>
-      <c r="AK14" s="100">
+      <c r="AK14" s="99">
         <v>55546</v>
       </c>
-      <c r="AL14" s="100">
+      <c r="AL14" s="99">
         <v>-23577</v>
       </c>
       <c r="AM14" s="5">
@@ -15963,7 +15962,7 @@
       <c r="AN14" s="5">
         <v>1454</v>
       </c>
-      <c r="AO14" s="101"/>
+      <c r="AO14" s="100"/>
     </row>
     <row r="15" spans="1:41" s="82" customFormat="1">
       <c r="A15" s="52">
@@ -16038,16 +16037,16 @@
       <c r="AF15" s="81"/>
       <c r="AG15" s="78"/>
       <c r="AH15" s="52"/>
-      <c r="AI15" s="100">
+      <c r="AI15" s="99">
         <v>55546</v>
       </c>
-      <c r="AJ15" s="100">
+      <c r="AJ15" s="99">
         <v>-23577</v>
       </c>
-      <c r="AK15" s="100">
+      <c r="AK15" s="99">
         <v>56579</v>
       </c>
-      <c r="AL15" s="100">
+      <c r="AL15" s="99">
         <v>-22980</v>
       </c>
       <c r="AM15" s="5">
@@ -16056,7 +16055,7 @@
       <c r="AN15" s="5">
         <v>1454</v>
       </c>
-      <c r="AO15" s="101"/>
+      <c r="AO15" s="100"/>
     </row>
     <row r="16" spans="1:41" s="82" customFormat="1">
       <c r="A16" s="52">
@@ -16133,16 +16132,16 @@
       <c r="AF16" s="81"/>
       <c r="AG16" s="78"/>
       <c r="AH16" s="52"/>
-      <c r="AI16" s="100">
+      <c r="AI16" s="99">
         <v>56579</v>
       </c>
-      <c r="AJ16" s="100">
+      <c r="AJ16" s="99">
         <v>-22980</v>
       </c>
-      <c r="AK16" s="100">
+      <c r="AK16" s="99">
         <v>57625</v>
       </c>
-      <c r="AL16" s="100">
+      <c r="AL16" s="99">
         <v>-22376</v>
       </c>
       <c r="AM16" s="5">
@@ -16151,7 +16150,7 @@
       <c r="AN16" s="5">
         <v>1207</v>
       </c>
-      <c r="AO16" s="101"/>
+      <c r="AO16" s="100"/>
     </row>
     <row r="17" spans="1:41" s="82" customFormat="1">
       <c r="A17" s="52">
@@ -16212,13 +16211,13 @@
       <c r="AF17" s="81"/>
       <c r="AG17" s="78"/>
       <c r="AH17" s="52"/>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="100"/>
-      <c r="AK17" s="100"/>
-      <c r="AL17" s="100"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="134"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="100"/>
     </row>
     <row r="18" spans="1:41" s="82" customFormat="1">
       <c r="A18" s="52">
@@ -16299,16 +16298,16 @@
       <c r="AF18" s="81"/>
       <c r="AG18" s="78"/>
       <c r="AH18" s="52"/>
-      <c r="AI18" s="100">
+      <c r="AI18" s="99">
         <v>68638</v>
       </c>
-      <c r="AJ18" s="100">
+      <c r="AJ18" s="99">
         <v>-20716.5</v>
       </c>
-      <c r="AK18" s="100">
+      <c r="AK18" s="99">
         <v>70286</v>
       </c>
-      <c r="AL18" s="100">
+      <c r="AL18" s="99">
         <v>-21325.5</v>
       </c>
       <c r="AM18" s="5">
@@ -16317,7 +16316,7 @@
       <c r="AN18" s="5">
         <v>500</v>
       </c>
-      <c r="AO18" s="102">
+      <c r="AO18" s="101">
         <v>30</v>
       </c>
     </row>
@@ -16396,16 +16395,16 @@
       <c r="AF19" s="81"/>
       <c r="AG19" s="78"/>
       <c r="AH19" s="52"/>
-      <c r="AI19" s="100">
+      <c r="AI19" s="99">
         <v>70286</v>
       </c>
-      <c r="AJ19" s="100">
+      <c r="AJ19" s="99">
         <v>-21325.5</v>
       </c>
-      <c r="AK19" s="100">
+      <c r="AK19" s="99">
         <v>71887</v>
       </c>
-      <c r="AL19" s="100">
+      <c r="AL19" s="99">
         <v>-21318</v>
       </c>
       <c r="AM19" s="5">
@@ -16414,7 +16413,7 @@
       <c r="AN19" s="5">
         <v>500</v>
       </c>
-      <c r="AO19" s="101"/>
+      <c r="AO19" s="100"/>
     </row>
     <row r="20" spans="1:41" s="82" customFormat="1">
       <c r="A20" s="52">
@@ -16491,16 +16490,16 @@
       <c r="AF20" s="81"/>
       <c r="AG20" s="78"/>
       <c r="AH20" s="52"/>
-      <c r="AI20" s="100">
+      <c r="AI20" s="99">
         <v>71887</v>
       </c>
-      <c r="AJ20" s="100">
+      <c r="AJ20" s="99">
         <v>-21318</v>
       </c>
-      <c r="AK20" s="100">
+      <c r="AK20" s="99">
         <v>74307</v>
       </c>
-      <c r="AL20" s="100">
+      <c r="AL20" s="99">
         <v>-21318</v>
       </c>
       <c r="AM20" s="5">
@@ -16509,7 +16508,7 @@
       <c r="AN20" s="5">
         <v>500</v>
       </c>
-      <c r="AO20" s="101"/>
+      <c r="AO20" s="100"/>
     </row>
     <row r="21" spans="1:41" s="82" customFormat="1">
       <c r="A21" s="52">
@@ -16572,13 +16571,13 @@
       <c r="AF21" s="81"/>
       <c r="AG21" s="78"/>
       <c r="AH21" s="52"/>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="100"/>
-      <c r="AL21" s="100"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="134"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="100"/>
     </row>
     <row r="22" spans="1:41" s="82" customFormat="1">
       <c r="A22" s="52">
@@ -16655,16 +16654,16 @@
       <c r="AF22" s="81"/>
       <c r="AG22" s="78"/>
       <c r="AH22" s="52"/>
-      <c r="AI22" s="100">
+      <c r="AI22" s="99">
         <v>74307</v>
       </c>
-      <c r="AJ22" s="100">
+      <c r="AJ22" s="99">
         <v>-21318</v>
       </c>
-      <c r="AK22" s="100">
+      <c r="AK22" s="99">
         <v>75927</v>
       </c>
-      <c r="AL22" s="100">
+      <c r="AL22" s="99">
         <v>-21318</v>
       </c>
       <c r="AM22" s="5">
@@ -16673,7 +16672,7 @@
       <c r="AN22" s="5">
         <v>500</v>
       </c>
-      <c r="AO22" s="101"/>
+      <c r="AO22" s="100"/>
     </row>
     <row r="23" spans="1:41" s="82" customFormat="1">
       <c r="A23" s="52">
@@ -16754,16 +16753,16 @@
       <c r="AF23" s="81"/>
       <c r="AG23" s="78"/>
       <c r="AH23" s="52"/>
-      <c r="AI23" s="100">
+      <c r="AI23" s="99">
         <v>75927</v>
       </c>
-      <c r="AJ23" s="100">
+      <c r="AJ23" s="99">
         <v>-21318</v>
       </c>
-      <c r="AK23" s="100">
+      <c r="AK23" s="99">
         <v>77576</v>
       </c>
-      <c r="AL23" s="100">
+      <c r="AL23" s="99">
         <v>-20715</v>
       </c>
       <c r="AM23" s="5">
@@ -16772,7 +16771,7 @@
       <c r="AN23" s="5">
         <v>500</v>
       </c>
-      <c r="AO23" s="102">
+      <c r="AO23" s="101">
         <v>30</v>
       </c>
     </row>
@@ -16851,16 +16850,16 @@
       <c r="AF24" s="81"/>
       <c r="AG24" s="78"/>
       <c r="AH24" s="52"/>
-      <c r="AI24" s="100">
+      <c r="AI24" s="99">
         <v>54940.5</v>
       </c>
-      <c r="AJ24" s="100">
+      <c r="AJ24" s="99">
         <v>-18228</v>
       </c>
-      <c r="AK24" s="100">
+      <c r="AK24" s="99">
         <v>56326.5</v>
       </c>
-      <c r="AL24" s="100">
+      <c r="AL24" s="99">
         <v>-19028</v>
       </c>
       <c r="AM24" s="5">
@@ -16869,7 +16868,7 @@
       <c r="AN24" s="5">
         <v>500</v>
       </c>
-      <c r="AO24" s="101"/>
+      <c r="AO24" s="100"/>
     </row>
     <row r="25" spans="1:41" s="82" customFormat="1">
       <c r="A25" s="52">
@@ -16950,16 +16949,16 @@
       <c r="AF25" s="81"/>
       <c r="AG25" s="78"/>
       <c r="AH25" s="52"/>
-      <c r="AI25" s="100">
+      <c r="AI25" s="99">
         <v>56331.5</v>
       </c>
-      <c r="AJ25" s="100">
+      <c r="AJ25" s="99">
         <v>-19032</v>
       </c>
-      <c r="AK25" s="100">
+      <c r="AK25" s="99">
         <v>57980</v>
       </c>
-      <c r="AL25" s="100">
+      <c r="AL25" s="99">
         <v>-19634</v>
       </c>
       <c r="AM25" s="5">
@@ -16968,7 +16967,7 @@
       <c r="AN25" s="5">
         <v>500</v>
       </c>
-      <c r="AO25" s="102">
+      <c r="AO25" s="101">
         <v>30</v>
       </c>
     </row>
@@ -17047,16 +17046,16 @@
       <c r="AF26" s="81"/>
       <c r="AG26" s="78"/>
       <c r="AH26" s="52"/>
-      <c r="AI26" s="100">
+      <c r="AI26" s="99">
         <v>57980</v>
       </c>
-      <c r="AJ26" s="100">
+      <c r="AJ26" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK26" s="100">
+      <c r="AK26" s="99">
         <v>59580</v>
       </c>
-      <c r="AL26" s="100">
+      <c r="AL26" s="99">
         <v>-19634</v>
       </c>
       <c r="AM26" s="5">
@@ -17065,7 +17064,7 @@
       <c r="AN26" s="5">
         <v>500</v>
       </c>
-      <c r="AO26" s="101"/>
+      <c r="AO26" s="100"/>
     </row>
     <row r="27" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A27" s="52">
@@ -17142,13 +17141,13 @@
       <c r="AF27" s="81"/>
       <c r="AG27" s="78"/>
       <c r="AH27" s="52"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="100"/>
-      <c r="AK27" s="100"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="103"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="100"/>
     </row>
     <row r="28" spans="1:41" s="82" customFormat="1">
       <c r="A28" s="52">
@@ -17229,13 +17228,13 @@
       <c r="AF28" s="81"/>
       <c r="AG28" s="78"/>
       <c r="AH28" s="52"/>
-      <c r="AI28" s="100"/>
-      <c r="AJ28" s="100"/>
-      <c r="AK28" s="100"/>
-      <c r="AL28" s="100"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="135"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="100"/>
     </row>
     <row r="29" spans="1:41" s="82" customFormat="1">
       <c r="A29" s="52">
@@ -17312,16 +17311,16 @@
       <c r="AF29" s="81"/>
       <c r="AG29" s="78"/>
       <c r="AH29" s="52"/>
-      <c r="AI29" s="100">
+      <c r="AI29" s="99">
         <v>59580</v>
       </c>
-      <c r="AJ29" s="100">
+      <c r="AJ29" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK29" s="100">
+      <c r="AK29" s="99">
         <v>63166</v>
       </c>
-      <c r="AL29" s="100">
+      <c r="AL29" s="99">
         <v>-19634</v>
       </c>
       <c r="AM29" s="5">
@@ -17330,7 +17329,7 @@
       <c r="AN29" s="5">
         <v>500</v>
       </c>
-      <c r="AO29" s="101"/>
+      <c r="AO29" s="100"/>
     </row>
     <row r="30" spans="1:41" s="82" customFormat="1">
       <c r="A30" s="52">
@@ -17407,16 +17406,16 @@
       <c r="AF30" s="81"/>
       <c r="AG30" s="78"/>
       <c r="AH30" s="52"/>
-      <c r="AI30" s="100">
+      <c r="AI30" s="99">
         <v>63166</v>
       </c>
-      <c r="AJ30" s="100">
+      <c r="AJ30" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK30" s="100">
+      <c r="AK30" s="99">
         <v>64766</v>
       </c>
-      <c r="AL30" s="100">
+      <c r="AL30" s="99">
         <v>-19634</v>
       </c>
       <c r="AM30" s="5">
@@ -17425,7 +17424,7 @@
       <c r="AN30" s="5">
         <v>500</v>
       </c>
-      <c r="AO30" s="101"/>
+      <c r="AO30" s="100"/>
     </row>
     <row r="31" spans="1:41" s="82" customFormat="1">
       <c r="A31" s="52">
@@ -17502,16 +17501,16 @@
       <c r="AF31" s="81"/>
       <c r="AG31" s="78"/>
       <c r="AH31" s="52"/>
-      <c r="AI31" s="100">
+      <c r="AI31" s="99">
         <v>64766</v>
       </c>
-      <c r="AJ31" s="100">
+      <c r="AJ31" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK31" s="100">
+      <c r="AK31" s="99">
         <v>66366</v>
       </c>
-      <c r="AL31" s="100">
+      <c r="AL31" s="99">
         <v>-19634</v>
       </c>
       <c r="AM31" s="5">
@@ -17520,7 +17519,7 @@
       <c r="AN31" s="5">
         <v>500</v>
       </c>
-      <c r="AO31" s="101"/>
+      <c r="AO31" s="100"/>
     </row>
     <row r="32" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A32" s="52">
@@ -17597,13 +17596,13 @@
       <c r="AF32" s="81"/>
       <c r="AG32" s="78"/>
       <c r="AH32" s="52"/>
-      <c r="AI32" s="100"/>
-      <c r="AJ32" s="100"/>
-      <c r="AK32" s="100"/>
-      <c r="AL32" s="100"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="103"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="99"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="100"/>
     </row>
     <row r="33" spans="1:41" s="82" customFormat="1">
       <c r="A33" s="52">
@@ -17684,13 +17683,13 @@
       <c r="AF33" s="81"/>
       <c r="AG33" s="78"/>
       <c r="AH33" s="52"/>
-      <c r="AI33" s="100"/>
-      <c r="AJ33" s="100"/>
-      <c r="AK33" s="100"/>
-      <c r="AL33" s="100"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="135"/>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="99"/>
+      <c r="AK33" s="99"/>
+      <c r="AL33" s="99"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="100"/>
     </row>
     <row r="34" spans="1:41" s="82" customFormat="1">
       <c r="A34" s="52">
@@ -17767,16 +17766,16 @@
       <c r="AF34" s="81"/>
       <c r="AG34" s="78"/>
       <c r="AH34" s="52"/>
-      <c r="AI34" s="100">
+      <c r="AI34" s="99">
         <v>66366</v>
       </c>
-      <c r="AJ34" s="100">
+      <c r="AJ34" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK34" s="100">
+      <c r="AK34" s="99">
         <v>68766</v>
       </c>
-      <c r="AL34" s="100">
+      <c r="AL34" s="99">
         <v>-19634</v>
       </c>
       <c r="AM34" s="5">
@@ -17785,7 +17784,7 @@
       <c r="AN34" s="5">
         <v>500</v>
       </c>
-      <c r="AO34" s="101"/>
+      <c r="AO34" s="100"/>
     </row>
     <row r="35" spans="1:41" s="82" customFormat="1">
       <c r="A35" s="52">
@@ -17862,16 +17861,16 @@
       <c r="AF35" s="81"/>
       <c r="AG35" s="78"/>
       <c r="AH35" s="52"/>
-      <c r="AI35" s="100">
+      <c r="AI35" s="99">
         <v>68766</v>
       </c>
-      <c r="AJ35" s="100">
+      <c r="AJ35" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK35" s="100">
+      <c r="AK35" s="99">
         <v>70766</v>
       </c>
-      <c r="AL35" s="100">
+      <c r="AL35" s="99">
         <v>-19634</v>
       </c>
       <c r="AM35" s="5">
@@ -17880,7 +17879,7 @@
       <c r="AN35" s="5">
         <v>500</v>
       </c>
-      <c r="AO35" s="101"/>
+      <c r="AO35" s="100"/>
     </row>
     <row r="36" spans="1:41" s="82" customFormat="1">
       <c r="A36" s="52">
@@ -17957,16 +17956,16 @@
       <c r="AF36" s="81"/>
       <c r="AG36" s="78"/>
       <c r="AH36" s="52"/>
-      <c r="AI36" s="100">
+      <c r="AI36" s="99">
         <v>70766</v>
       </c>
-      <c r="AJ36" s="100">
+      <c r="AJ36" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK36" s="100">
+      <c r="AK36" s="99">
         <v>73186</v>
       </c>
-      <c r="AL36" s="100">
+      <c r="AL36" s="99">
         <v>-19634</v>
       </c>
       <c r="AM36" s="5">
@@ -17975,7 +17974,7 @@
       <c r="AN36" s="5">
         <v>500</v>
       </c>
-      <c r="AO36" s="101"/>
+      <c r="AO36" s="100"/>
     </row>
     <row r="37" spans="1:41" s="82" customFormat="1">
       <c r="A37" s="52">
@@ -18052,16 +18051,16 @@
       <c r="AF37" s="81"/>
       <c r="AG37" s="78"/>
       <c r="AH37" s="52"/>
-      <c r="AI37" s="100">
+      <c r="AI37" s="99">
         <v>73186</v>
       </c>
-      <c r="AJ37" s="100">
+      <c r="AJ37" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK37" s="100">
+      <c r="AK37" s="99">
         <v>75586</v>
       </c>
-      <c r="AL37" s="100">
+      <c r="AL37" s="99">
         <v>-19634</v>
       </c>
       <c r="AM37" s="5">
@@ -18070,7 +18069,7 @@
       <c r="AN37" s="5">
         <v>500</v>
       </c>
-      <c r="AO37" s="101"/>
+      <c r="AO37" s="100"/>
     </row>
     <row r="38" spans="1:41" s="82" customFormat="1">
       <c r="A38" s="52">
@@ -18147,16 +18146,16 @@
       <c r="AF38" s="81"/>
       <c r="AG38" s="78"/>
       <c r="AH38" s="52"/>
-      <c r="AI38" s="100">
+      <c r="AI38" s="99">
         <v>75586</v>
       </c>
-      <c r="AJ38" s="100">
+      <c r="AJ38" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK38" s="100">
+      <c r="AK38" s="99">
         <v>77586</v>
       </c>
-      <c r="AL38" s="100">
+      <c r="AL38" s="99">
         <v>-19634</v>
       </c>
       <c r="AM38" s="5">
@@ -18165,7 +18164,7 @@
       <c r="AN38" s="5">
         <v>500</v>
       </c>
-      <c r="AO38" s="101"/>
+      <c r="AO38" s="100"/>
     </row>
     <row r="39" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A39" s="52">
@@ -18242,13 +18241,13 @@
       <c r="AF39" s="81"/>
       <c r="AG39" s="78"/>
       <c r="AH39" s="52"/>
-      <c r="AI39" s="100"/>
-      <c r="AJ39" s="100"/>
-      <c r="AK39" s="100"/>
-      <c r="AL39" s="100"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="103"/>
+      <c r="AI39" s="99"/>
+      <c r="AJ39" s="99"/>
+      <c r="AK39" s="99"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="100"/>
     </row>
     <row r="40" spans="1:41" s="82" customFormat="1">
       <c r="A40" s="52">
@@ -18329,13 +18328,13 @@
       <c r="AF40" s="81"/>
       <c r="AG40" s="78"/>
       <c r="AH40" s="52"/>
-      <c r="AI40" s="100"/>
-      <c r="AJ40" s="100"/>
-      <c r="AK40" s="100"/>
-      <c r="AL40" s="100"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="135"/>
+      <c r="AI40" s="99"/>
+      <c r="AJ40" s="99"/>
+      <c r="AK40" s="99"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="100"/>
     </row>
     <row r="41" spans="1:41" s="82" customFormat="1">
       <c r="A41" s="52">
@@ -18412,16 +18411,16 @@
       <c r="AF41" s="81"/>
       <c r="AG41" s="78"/>
       <c r="AH41" s="52"/>
-      <c r="AI41" s="100">
+      <c r="AI41" s="99">
         <v>77586</v>
       </c>
-      <c r="AJ41" s="100">
+      <c r="AJ41" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK41" s="100">
+      <c r="AK41" s="99">
         <v>79986</v>
       </c>
-      <c r="AL41" s="100">
+      <c r="AL41" s="99">
         <v>-19634</v>
       </c>
       <c r="AM41" s="5">
@@ -18430,7 +18429,7 @@
       <c r="AN41" s="5">
         <v>500</v>
       </c>
-      <c r="AO41" s="101"/>
+      <c r="AO41" s="100"/>
     </row>
     <row r="42" spans="1:41" s="82" customFormat="1">
       <c r="A42" s="52">
@@ -18507,16 +18506,16 @@
       <c r="AF42" s="81"/>
       <c r="AG42" s="78"/>
       <c r="AH42" s="52"/>
-      <c r="AI42" s="100">
+      <c r="AI42" s="99">
         <v>79986</v>
       </c>
-      <c r="AJ42" s="100">
+      <c r="AJ42" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK42" s="100">
+      <c r="AK42" s="99">
         <v>83586</v>
       </c>
-      <c r="AL42" s="100">
+      <c r="AL42" s="99">
         <v>-19634</v>
       </c>
       <c r="AM42" s="5">
@@ -18525,7 +18524,7 @@
       <c r="AN42" s="5">
         <v>500</v>
       </c>
-      <c r="AO42" s="101"/>
+      <c r="AO42" s="100"/>
     </row>
     <row r="43" spans="1:41" s="82" customFormat="1">
       <c r="A43" s="52">
@@ -18606,16 +18605,16 @@
       <c r="AF43" s="81"/>
       <c r="AG43" s="78"/>
       <c r="AH43" s="52"/>
-      <c r="AI43" s="100">
+      <c r="AI43" s="99">
         <v>83586</v>
       </c>
-      <c r="AJ43" s="100">
+      <c r="AJ43" s="99">
         <v>-19634</v>
       </c>
-      <c r="AK43" s="100">
+      <c r="AK43" s="99">
         <v>84482</v>
       </c>
-      <c r="AL43" s="100">
+      <c r="AL43" s="99">
         <v>-16247</v>
       </c>
       <c r="AM43" s="5">
@@ -18624,7 +18623,7 @@
       <c r="AN43" s="5">
         <v>500</v>
       </c>
-      <c r="AO43" s="102">
+      <c r="AO43" s="101">
         <v>90</v>
       </c>
     </row>
@@ -18703,16 +18702,16 @@
       <c r="AF44" s="81"/>
       <c r="AG44" s="78"/>
       <c r="AH44" s="52"/>
-      <c r="AI44" s="100">
+      <c r="AI44" s="99">
         <v>85847</v>
       </c>
-      <c r="AJ44" s="100">
+      <c r="AJ44" s="99">
         <v>-16235</v>
       </c>
-      <c r="AK44" s="100">
+      <c r="AK44" s="99">
         <v>85847</v>
       </c>
-      <c r="AL44" s="100">
+      <c r="AL44" s="99">
         <v>-14235</v>
       </c>
       <c r="AM44" s="5">
@@ -18721,7 +18720,7 @@
       <c r="AN44" s="5">
         <v>500</v>
       </c>
-      <c r="AO44" s="101"/>
+      <c r="AO44" s="100"/>
     </row>
     <row r="45" spans="1:41" s="82" customFormat="1">
       <c r="A45" s="52">
@@ -18798,16 +18797,16 @@
       <c r="AF45" s="81"/>
       <c r="AG45" s="78"/>
       <c r="AH45" s="52"/>
-      <c r="AI45" s="100">
+      <c r="AI45" s="99">
         <v>85847</v>
       </c>
-      <c r="AJ45" s="100">
+      <c r="AJ45" s="99">
         <v>-14235</v>
       </c>
-      <c r="AK45" s="100">
+      <c r="AK45" s="99">
         <v>85847</v>
       </c>
-      <c r="AL45" s="100">
+      <c r="AL45" s="99">
         <v>-12235</v>
       </c>
       <c r="AM45" s="5">
@@ -18816,7 +18815,7 @@
       <c r="AN45" s="5">
         <v>500</v>
       </c>
-      <c r="AO45" s="101"/>
+      <c r="AO45" s="100"/>
     </row>
     <row r="46" spans="1:41" s="82" customFormat="1">
       <c r="A46" s="52">
@@ -18893,16 +18892,16 @@
       <c r="AF46" s="81"/>
       <c r="AG46" s="78"/>
       <c r="AH46" s="52"/>
-      <c r="AI46" s="100">
+      <c r="AI46" s="99">
         <v>85847</v>
       </c>
-      <c r="AJ46" s="100">
+      <c r="AJ46" s="99">
         <v>-12235</v>
       </c>
-      <c r="AK46" s="100">
+      <c r="AK46" s="99">
         <v>85847</v>
       </c>
-      <c r="AL46" s="100">
+      <c r="AL46" s="99">
         <v>-10235</v>
       </c>
       <c r="AM46" s="5">
@@ -18911,7 +18910,7 @@
       <c r="AN46" s="5">
         <v>500</v>
       </c>
-      <c r="AO46" s="101"/>
+      <c r="AO46" s="100"/>
     </row>
     <row r="47" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A47" s="52">
@@ -18988,13 +18987,13 @@
       <c r="AF47" s="81"/>
       <c r="AG47" s="78"/>
       <c r="AH47" s="52"/>
-      <c r="AI47" s="100"/>
-      <c r="AJ47" s="100"/>
-      <c r="AK47" s="100"/>
-      <c r="AL47" s="100"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="103"/>
+      <c r="AI47" s="99"/>
+      <c r="AJ47" s="99"/>
+      <c r="AK47" s="99"/>
+      <c r="AL47" s="99"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="100"/>
     </row>
     <row r="48" spans="1:41" s="82" customFormat="1">
       <c r="A48" s="52">
@@ -19075,13 +19074,13 @@
       <c r="AF48" s="81"/>
       <c r="AG48" s="78"/>
       <c r="AH48" s="52"/>
-      <c r="AI48" s="100"/>
-      <c r="AJ48" s="100"/>
-      <c r="AK48" s="100"/>
-      <c r="AL48" s="100"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="135"/>
+      <c r="AI48" s="99"/>
+      <c r="AJ48" s="99"/>
+      <c r="AK48" s="99"/>
+      <c r="AL48" s="99"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="100"/>
     </row>
     <row r="49" spans="1:41" s="82" customFormat="1">
       <c r="A49" s="52">
@@ -19158,16 +19157,16 @@
       <c r="AF49" s="81"/>
       <c r="AG49" s="78"/>
       <c r="AH49" s="52"/>
-      <c r="AI49" s="100">
+      <c r="AI49" s="99">
         <v>85847</v>
       </c>
-      <c r="AJ49" s="100">
+      <c r="AJ49" s="99">
         <v>-10235</v>
       </c>
-      <c r="AK49" s="100">
+      <c r="AK49" s="99">
         <v>85847</v>
       </c>
-      <c r="AL49" s="100">
+      <c r="AL49" s="99">
         <v>-6635</v>
       </c>
       <c r="AM49" s="5">
@@ -19176,7 +19175,7 @@
       <c r="AN49" s="5">
         <v>500</v>
       </c>
-      <c r="AO49" s="101"/>
+      <c r="AO49" s="100"/>
     </row>
     <row r="50" spans="1:41" s="82" customFormat="1">
       <c r="A50" s="52">
@@ -19253,16 +19252,16 @@
       <c r="AF50" s="81"/>
       <c r="AG50" s="78"/>
       <c r="AH50" s="52"/>
-      <c r="AI50" s="100">
+      <c r="AI50" s="99">
         <v>85847</v>
       </c>
-      <c r="AJ50" s="100">
+      <c r="AJ50" s="99">
         <v>-6635</v>
       </c>
-      <c r="AK50" s="100">
+      <c r="AK50" s="99">
         <v>85847</v>
       </c>
-      <c r="AL50" s="100">
+      <c r="AL50" s="99">
         <v>-635</v>
       </c>
       <c r="AM50" s="5">
@@ -19271,7 +19270,7 @@
       <c r="AN50" s="5">
         <v>500</v>
       </c>
-      <c r="AO50" s="101"/>
+      <c r="AO50" s="100"/>
     </row>
     <row r="51" spans="1:41" s="82" customFormat="1">
       <c r="A51" s="52">
@@ -19348,16 +19347,16 @@
       <c r="AF51" s="81"/>
       <c r="AG51" s="78"/>
       <c r="AH51" s="52"/>
-      <c r="AI51" s="100">
+      <c r="AI51" s="99">
         <v>85847</v>
       </c>
-      <c r="AJ51" s="100">
+      <c r="AJ51" s="99">
         <v>-635</v>
       </c>
-      <c r="AK51" s="100">
+      <c r="AK51" s="99">
         <v>85832</v>
       </c>
-      <c r="AL51" s="100">
+      <c r="AL51" s="99">
         <v>1365</v>
       </c>
       <c r="AM51" s="5">
@@ -19366,7 +19365,7 @@
       <c r="AN51" s="5">
         <v>500</v>
       </c>
-      <c r="AO51" s="101"/>
+      <c r="AO51" s="100"/>
     </row>
     <row r="52" spans="1:41" s="82" customFormat="1">
       <c r="A52" s="52">
@@ -19447,16 +19446,16 @@
       <c r="AF52" s="81"/>
       <c r="AG52" s="78"/>
       <c r="AH52" s="52"/>
-      <c r="AI52" s="100">
+      <c r="AI52" s="99">
         <v>85814</v>
       </c>
-      <c r="AJ52" s="100">
+      <c r="AJ52" s="99">
         <v>1363</v>
       </c>
-      <c r="AK52" s="100">
+      <c r="AK52" s="99">
         <v>82605.5</v>
       </c>
-      <c r="AL52" s="100">
+      <c r="AL52" s="99">
         <v>3610</v>
       </c>
       <c r="AM52" s="5">
@@ -19465,7 +19464,7 @@
       <c r="AN52" s="5">
         <v>500</v>
       </c>
-      <c r="AO52" s="102">
+      <c r="AO52" s="101">
         <v>90</v>
       </c>
     </row>
@@ -19550,16 +19549,16 @@
       <c r="AF53" s="81"/>
       <c r="AG53" s="78"/>
       <c r="AH53" s="52"/>
-      <c r="AI53" s="100">
+      <c r="AI53" s="99">
         <v>82610</v>
       </c>
-      <c r="AJ53" s="100">
+      <c r="AJ53" s="99">
         <v>3610</v>
       </c>
-      <c r="AK53" s="100">
+      <c r="AK53" s="99">
         <v>76598.5</v>
       </c>
-      <c r="AL53" s="100">
+      <c r="AL53" s="99">
         <v>3610</v>
       </c>
       <c r="AM53" s="5">
@@ -19568,7 +19567,7 @@
       <c r="AN53" s="5">
         <v>1234</v>
       </c>
-      <c r="AO53" s="101"/>
+      <c r="AO53" s="100"/>
     </row>
     <row r="54" spans="1:41" s="82" customFormat="1">
       <c r="A54" s="52">
@@ -19651,16 +19650,16 @@
       <c r="AF54" s="81"/>
       <c r="AG54" s="78"/>
       <c r="AH54" s="52"/>
-      <c r="AI54" s="100">
+      <c r="AI54" s="99">
         <v>76598.5</v>
       </c>
-      <c r="AJ54" s="100">
+      <c r="AJ54" s="99">
         <v>3610</v>
       </c>
-      <c r="AK54" s="100">
+      <c r="AK54" s="99">
         <v>70576</v>
       </c>
-      <c r="AL54" s="100">
+      <c r="AL54" s="99">
         <v>3610</v>
       </c>
       <c r="AM54" s="5">
@@ -19669,7 +19668,7 @@
       <c r="AN54" s="5">
         <v>1976</v>
       </c>
-      <c r="AO54" s="101"/>
+      <c r="AO54" s="100"/>
     </row>
     <row r="55" spans="1:41" s="82" customFormat="1">
       <c r="A55" s="52">
@@ -19746,16 +19745,16 @@
       <c r="AF55" s="81"/>
       <c r="AG55" s="78"/>
       <c r="AH55" s="52"/>
-      <c r="AI55" s="100">
+      <c r="AI55" s="99">
         <v>70576</v>
       </c>
-      <c r="AJ55" s="100">
+      <c r="AJ55" s="99">
         <v>3610</v>
       </c>
-      <c r="AK55" s="100">
+      <c r="AK55" s="99">
         <v>68136</v>
       </c>
-      <c r="AL55" s="100">
+      <c r="AL55" s="99">
         <v>3610</v>
       </c>
       <c r="AM55" s="5">
@@ -19764,7 +19763,7 @@
       <c r="AN55" s="5">
         <v>1983</v>
       </c>
-      <c r="AO55" s="101"/>
+      <c r="AO55" s="100"/>
     </row>
     <row r="56" spans="1:41" s="82" customFormat="1">
       <c r="A56" s="52">
@@ -19841,16 +19840,16 @@
       <c r="AF56" s="81"/>
       <c r="AG56" s="78"/>
       <c r="AH56" s="52"/>
-      <c r="AI56" s="100">
+      <c r="AI56" s="99">
         <v>68136</v>
       </c>
-      <c r="AJ56" s="100">
+      <c r="AJ56" s="99">
         <v>3610</v>
       </c>
-      <c r="AK56" s="100">
+      <c r="AK56" s="99">
         <v>66126</v>
       </c>
-      <c r="AL56" s="100">
+      <c r="AL56" s="99">
         <v>3610</v>
       </c>
       <c r="AM56" s="5">
@@ -19859,7 +19858,7 @@
       <c r="AN56" s="5">
         <v>1983</v>
       </c>
-      <c r="AO56" s="101"/>
+      <c r="AO56" s="100"/>
     </row>
     <row r="57" spans="1:41" s="82" customFormat="1">
       <c r="A57" s="52">
@@ -19896,7 +19895,9 @@
       </c>
       <c r="K57" s="52"/>
       <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
+      <c r="M57" s="52">
+        <v>850</v>
+      </c>
       <c r="N57" s="52">
         <v>1983</v>
       </c>
@@ -19930,16 +19931,16 @@
       <c r="AF57" s="81"/>
       <c r="AG57" s="78"/>
       <c r="AH57" s="52"/>
-      <c r="AI57" s="100">
+      <c r="AI57" s="99">
         <v>66126</v>
       </c>
-      <c r="AJ57" s="100">
+      <c r="AJ57" s="99">
         <v>3610</v>
       </c>
-      <c r="AK57" s="100">
+      <c r="AK57" s="99">
         <v>60496</v>
       </c>
-      <c r="AL57" s="100">
+      <c r="AL57" s="99">
         <v>3610</v>
       </c>
       <c r="AM57" s="5">
@@ -19948,9 +19949,9 @@
       <c r="AN57" s="5">
         <v>1983</v>
       </c>
-      <c r="AO57" s="101"/>
-    </row>
-    <row r="58" spans="1:41" s="82" customFormat="1" hidden="1">
+      <c r="AO57" s="100"/>
+    </row>
+    <row r="58" spans="1:41" s="82" customFormat="1" ht="17.5" customHeight="1">
       <c r="A58" s="52">
         <v>57</v>
       </c>
@@ -19975,7 +19976,10 @@
       <c r="I58" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="J58" s="52"/>
+      <c r="J58" s="52" t="str">
+        <f>VLOOKUP(I58,族对应的Catalog!$A$2:$B$26,2,FALSE)</f>
+        <v>CHUTE</v>
+      </c>
       <c r="K58" s="52">
         <v>0</v>
       </c>
@@ -20012,13 +20016,13 @@
       <c r="AF58" s="81"/>
       <c r="AG58" s="78"/>
       <c r="AH58" s="52"/>
-      <c r="AI58" s="100"/>
-      <c r="AJ58" s="100"/>
-      <c r="AK58" s="100"/>
-      <c r="AL58" s="100"/>
+      <c r="AI58" s="106"/>
+      <c r="AJ58" s="106"/>
+      <c r="AK58" s="106"/>
+      <c r="AL58" s="106"/>
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
-      <c r="AO58" s="103"/>
+      <c r="AO58" s="108"/>
     </row>
     <row r="59" spans="1:41" s="82" customFormat="1">
       <c r="A59" s="52">
@@ -20081,13 +20085,13 @@
       <c r="AF59" s="81"/>
       <c r="AG59" s="78"/>
       <c r="AH59" s="52"/>
-      <c r="AI59" s="100"/>
-      <c r="AJ59" s="100"/>
-      <c r="AK59" s="100"/>
-      <c r="AL59" s="100"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="135"/>
+      <c r="AI59" s="99"/>
+      <c r="AJ59" s="99"/>
+      <c r="AK59" s="99"/>
+      <c r="AL59" s="99"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="100"/>
     </row>
     <row r="60" spans="1:41" s="82" customFormat="1">
       <c r="A60" s="52">
@@ -20164,16 +20168,16 @@
       <c r="AF60" s="81"/>
       <c r="AG60" s="78"/>
       <c r="AH60" s="52"/>
-      <c r="AI60" s="100">
+      <c r="AI60" s="99">
         <v>60496</v>
       </c>
-      <c r="AJ60" s="100">
+      <c r="AJ60" s="99">
         <v>3610</v>
       </c>
-      <c r="AK60" s="100">
+      <c r="AK60" s="99">
         <v>58896</v>
       </c>
-      <c r="AL60" s="100">
+      <c r="AL60" s="99">
         <v>3610</v>
       </c>
       <c r="AM60" s="5">
@@ -20182,7 +20186,7 @@
       <c r="AN60" s="5">
         <v>1983</v>
       </c>
-      <c r="AO60" s="101"/>
+      <c r="AO60" s="100"/>
     </row>
     <row r="61" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A61" s="52">
@@ -20259,13 +20263,13 @@
       <c r="AF61" s="81"/>
       <c r="AG61" s="78"/>
       <c r="AH61" s="52"/>
-      <c r="AI61" s="100"/>
-      <c r="AJ61" s="100"/>
-      <c r="AK61" s="100"/>
-      <c r="AL61" s="100"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="103"/>
+      <c r="AI61" s="99"/>
+      <c r="AJ61" s="99"/>
+      <c r="AK61" s="99"/>
+      <c r="AL61" s="99"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="100"/>
     </row>
     <row r="62" spans="1:41" s="82" customFormat="1">
       <c r="A62" s="52">
@@ -20346,13 +20350,13 @@
       <c r="AF62" s="81"/>
       <c r="AG62" s="78"/>
       <c r="AH62" s="52"/>
-      <c r="AI62" s="100"/>
-      <c r="AJ62" s="100"/>
-      <c r="AK62" s="100"/>
-      <c r="AL62" s="100"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="135"/>
+      <c r="AI62" s="99"/>
+      <c r="AJ62" s="99"/>
+      <c r="AK62" s="99"/>
+      <c r="AL62" s="99"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="100"/>
     </row>
     <row r="63" spans="1:41" s="82" customFormat="1">
       <c r="A63" s="52">
@@ -20429,16 +20433,16 @@
       <c r="AF63" s="81"/>
       <c r="AG63" s="78"/>
       <c r="AH63" s="52"/>
-      <c r="AI63" s="100">
+      <c r="AI63" s="99">
         <v>58896</v>
       </c>
-      <c r="AJ63" s="100">
+      <c r="AJ63" s="99">
         <v>3610</v>
       </c>
-      <c r="AK63" s="100">
+      <c r="AK63" s="99">
         <v>55296</v>
       </c>
-      <c r="AL63" s="100">
+      <c r="AL63" s="99">
         <v>3610</v>
       </c>
       <c r="AM63" s="5">
@@ -20447,7 +20451,7 @@
       <c r="AN63" s="5">
         <v>1983</v>
       </c>
-      <c r="AO63" s="101"/>
+      <c r="AO63" s="100"/>
     </row>
     <row r="64" spans="1:41" s="82" customFormat="1">
       <c r="A64" s="52">
@@ -20524,16 +20528,16 @@
       <c r="AF64" s="81"/>
       <c r="AG64" s="78"/>
       <c r="AH64" s="52"/>
-      <c r="AI64" s="100">
+      <c r="AI64" s="99">
         <v>55296</v>
       </c>
-      <c r="AJ64" s="100">
+      <c r="AJ64" s="99">
         <v>3610</v>
       </c>
-      <c r="AK64" s="100">
+      <c r="AK64" s="99">
         <v>49296</v>
       </c>
-      <c r="AL64" s="100">
+      <c r="AL64" s="99">
         <v>3610</v>
       </c>
       <c r="AM64" s="5">
@@ -20542,7 +20546,7 @@
       <c r="AN64" s="5">
         <v>1983</v>
       </c>
-      <c r="AO64" s="101"/>
+      <c r="AO64" s="100"/>
     </row>
     <row r="65" spans="1:41" s="82" customFormat="1">
       <c r="A65" s="52">
@@ -20619,16 +20623,16 @@
       <c r="AF65" s="81"/>
       <c r="AG65" s="78"/>
       <c r="AH65" s="52"/>
-      <c r="AI65" s="100">
+      <c r="AI65" s="99">
         <v>49296</v>
       </c>
-      <c r="AJ65" s="100">
+      <c r="AJ65" s="99">
         <v>3610</v>
       </c>
-      <c r="AK65" s="100">
+      <c r="AK65" s="99">
         <v>46896</v>
       </c>
-      <c r="AL65" s="100">
+      <c r="AL65" s="99">
         <v>3610</v>
       </c>
       <c r="AM65" s="5">
@@ -20637,7 +20641,7 @@
       <c r="AN65" s="5">
         <v>1983</v>
       </c>
-      <c r="AO65" s="101"/>
+      <c r="AO65" s="100"/>
     </row>
     <row r="66" spans="1:41" s="82" customFormat="1">
       <c r="A66" s="52">
@@ -20714,16 +20718,16 @@
       <c r="AF66" s="81"/>
       <c r="AG66" s="78"/>
       <c r="AH66" s="52"/>
-      <c r="AI66" s="100">
+      <c r="AI66" s="99">
         <v>46896</v>
       </c>
-      <c r="AJ66" s="100">
+      <c r="AJ66" s="99">
         <v>3610</v>
       </c>
-      <c r="AK66" s="100">
+      <c r="AK66" s="99">
         <v>45296</v>
       </c>
-      <c r="AL66" s="100">
+      <c r="AL66" s="99">
         <v>3610</v>
       </c>
       <c r="AM66" s="5">
@@ -20732,7 +20736,7 @@
       <c r="AN66" s="5">
         <v>1983</v>
       </c>
-      <c r="AO66" s="101"/>
+      <c r="AO66" s="100"/>
     </row>
     <row r="67" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A67" s="52">
@@ -20809,13 +20813,13 @@
       <c r="AF67" s="81"/>
       <c r="AG67" s="78"/>
       <c r="AH67" s="52"/>
-      <c r="AI67" s="100"/>
-      <c r="AJ67" s="100"/>
-      <c r="AK67" s="100"/>
-      <c r="AL67" s="100"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="103"/>
+      <c r="AI67" s="99"/>
+      <c r="AJ67" s="99"/>
+      <c r="AK67" s="99"/>
+      <c r="AL67" s="99"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="100"/>
     </row>
     <row r="68" spans="1:41" s="82" customFormat="1">
       <c r="A68" s="52">
@@ -20896,13 +20900,13 @@
       <c r="AF68" s="81"/>
       <c r="AG68" s="78"/>
       <c r="AH68" s="52"/>
-      <c r="AI68" s="100"/>
-      <c r="AJ68" s="100"/>
-      <c r="AK68" s="100"/>
-      <c r="AL68" s="100"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="135"/>
+      <c r="AI68" s="99"/>
+      <c r="AJ68" s="99"/>
+      <c r="AK68" s="99"/>
+      <c r="AL68" s="99"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="100"/>
     </row>
     <row r="69" spans="1:41" s="82" customFormat="1">
       <c r="A69" s="52">
@@ -20979,16 +20983,16 @@
       <c r="AF69" s="81"/>
       <c r="AG69" s="78"/>
       <c r="AH69" s="52"/>
-      <c r="AI69" s="100">
+      <c r="AI69" s="99">
         <v>46096</v>
       </c>
-      <c r="AJ69" s="100">
+      <c r="AJ69" s="99">
         <v>1475</v>
       </c>
-      <c r="AK69" s="100">
+      <c r="AK69" s="99">
         <v>44350.5</v>
       </c>
-      <c r="AL69" s="100">
+      <c r="AL69" s="99">
         <v>2475</v>
       </c>
       <c r="AM69" s="5">
@@ -20997,7 +21001,7 @@
       <c r="AN69" s="5">
         <v>1983</v>
       </c>
-      <c r="AO69" s="101"/>
+      <c r="AO69" s="100"/>
     </row>
     <row r="70" spans="1:41" s="82" customFormat="1">
       <c r="A70" s="52">
@@ -21074,16 +21078,16 @@
       <c r="AF70" s="81"/>
       <c r="AG70" s="78"/>
       <c r="AH70" s="52"/>
-      <c r="AI70" s="100">
+      <c r="AI70" s="99">
         <v>45296</v>
       </c>
-      <c r="AJ70" s="100">
+      <c r="AJ70" s="99">
         <v>3610</v>
       </c>
-      <c r="AK70" s="100">
+      <c r="AK70" s="99">
         <v>41682</v>
       </c>
-      <c r="AL70" s="100">
+      <c r="AL70" s="99">
         <v>3610</v>
       </c>
       <c r="AM70" s="5">
@@ -21092,7 +21096,7 @@
       <c r="AN70" s="5">
         <v>1983</v>
       </c>
-      <c r="AO70" s="101"/>
+      <c r="AO70" s="100"/>
     </row>
     <row r="71" spans="1:41" s="82" customFormat="1">
       <c r="A71" s="52">
@@ -21175,16 +21179,16 @@
       <c r="AF71" s="81"/>
       <c r="AG71" s="78"/>
       <c r="AH71" s="52"/>
-      <c r="AI71" s="100">
+      <c r="AI71" s="99">
         <v>41682</v>
       </c>
-      <c r="AJ71" s="100">
+      <c r="AJ71" s="99">
         <v>3610</v>
       </c>
-      <c r="AK71" s="100">
+      <c r="AK71" s="99">
         <v>35848</v>
       </c>
-      <c r="AL71" s="100">
+      <c r="AL71" s="99">
         <v>3609.5</v>
       </c>
       <c r="AM71" s="5">
@@ -21193,7 +21197,7 @@
       <c r="AN71" s="5">
         <v>500</v>
       </c>
-      <c r="AO71" s="101"/>
+      <c r="AO71" s="100"/>
     </row>
     <row r="72" spans="1:41" s="82" customFormat="1">
       <c r="A72" s="52">
@@ -21270,16 +21274,16 @@
       <c r="AF72" s="81"/>
       <c r="AG72" s="78"/>
       <c r="AH72" s="52"/>
-      <c r="AI72" s="100">
+      <c r="AI72" s="99">
         <v>35848</v>
       </c>
-      <c r="AJ72" s="100">
+      <c r="AJ72" s="99">
         <v>3609.5</v>
       </c>
-      <c r="AK72" s="100">
+      <c r="AK72" s="99">
         <v>33448</v>
       </c>
-      <c r="AL72" s="100">
+      <c r="AL72" s="99">
         <v>3609.5</v>
       </c>
       <c r="AM72" s="5">
@@ -21288,7 +21292,7 @@
       <c r="AN72" s="5">
         <v>500</v>
       </c>
-      <c r="AO72" s="101"/>
+      <c r="AO72" s="100"/>
     </row>
     <row r="73" spans="1:41" s="82" customFormat="1">
       <c r="A73" s="52">
@@ -21369,16 +21373,16 @@
       <c r="AF73" s="81"/>
       <c r="AG73" s="78"/>
       <c r="AH73" s="52"/>
-      <c r="AI73" s="100">
+      <c r="AI73" s="99">
         <v>33448</v>
       </c>
-      <c r="AJ73" s="100">
+      <c r="AJ73" s="99">
         <v>3609.5</v>
       </c>
-      <c r="AK73" s="100">
+      <c r="AK73" s="99">
         <v>31192</v>
       </c>
-      <c r="AL73" s="100">
+      <c r="AL73" s="99">
         <v>377</v>
       </c>
       <c r="AM73" s="5">
@@ -21387,7 +21391,7 @@
       <c r="AN73" s="5">
         <v>500</v>
       </c>
-      <c r="AO73" s="102">
+      <c r="AO73" s="101">
         <v>90</v>
       </c>
     </row>
@@ -21466,16 +21470,16 @@
       <c r="AF74" s="81"/>
       <c r="AG74" s="78"/>
       <c r="AH74" s="52"/>
-      <c r="AI74" s="100">
+      <c r="AI74" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ74" s="100">
+      <c r="AJ74" s="99">
         <v>377</v>
       </c>
-      <c r="AK74" s="100">
+      <c r="AK74" s="99">
         <v>31192</v>
       </c>
-      <c r="AL74" s="100">
+      <c r="AL74" s="99">
         <v>-1223</v>
       </c>
       <c r="AM74" s="5">
@@ -21484,7 +21488,7 @@
       <c r="AN74" s="5">
         <v>500</v>
       </c>
-      <c r="AO74" s="101"/>
+      <c r="AO74" s="100"/>
     </row>
     <row r="75" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A75" s="52">
@@ -21561,13 +21565,13 @@
       <c r="AF75" s="81"/>
       <c r="AG75" s="78"/>
       <c r="AH75" s="52"/>
-      <c r="AI75" s="100"/>
-      <c r="AJ75" s="100"/>
-      <c r="AK75" s="100"/>
-      <c r="AL75" s="100"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="103"/>
+      <c r="AI75" s="99"/>
+      <c r="AJ75" s="99"/>
+      <c r="AK75" s="99"/>
+      <c r="AL75" s="99"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="100"/>
     </row>
     <row r="76" spans="1:41" s="82" customFormat="1">
       <c r="A76" s="52">
@@ -21648,13 +21652,13 @@
       <c r="AF76" s="81"/>
       <c r="AG76" s="78"/>
       <c r="AH76" s="52"/>
-      <c r="AI76" s="100"/>
-      <c r="AJ76" s="100"/>
-      <c r="AK76" s="100"/>
-      <c r="AL76" s="100"/>
-      <c r="AM76" s="1"/>
-      <c r="AN76" s="1"/>
-      <c r="AO76" s="135"/>
+      <c r="AI76" s="99"/>
+      <c r="AJ76" s="99"/>
+      <c r="AK76" s="99"/>
+      <c r="AL76" s="99"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="100"/>
     </row>
     <row r="77" spans="1:41" s="82" customFormat="1">
       <c r="A77" s="52">
@@ -21731,16 +21735,16 @@
       <c r="AF77" s="81"/>
       <c r="AG77" s="78"/>
       <c r="AH77" s="52"/>
-      <c r="AI77" s="100">
+      <c r="AI77" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ77" s="100">
+      <c r="AJ77" s="99">
         <v>-1223</v>
       </c>
-      <c r="AK77" s="100">
+      <c r="AK77" s="99">
         <v>31192</v>
       </c>
-      <c r="AL77" s="100">
+      <c r="AL77" s="99">
         <v>-4832</v>
       </c>
       <c r="AM77" s="5">
@@ -21749,7 +21753,7 @@
       <c r="AN77" s="5">
         <v>500</v>
       </c>
-      <c r="AO77" s="101"/>
+      <c r="AO77" s="100"/>
     </row>
     <row r="78" spans="1:41" s="82" customFormat="1">
       <c r="A78" s="52">
@@ -21826,16 +21830,16 @@
       <c r="AF78" s="81"/>
       <c r="AG78" s="78"/>
       <c r="AH78" s="52"/>
-      <c r="AI78" s="100">
+      <c r="AI78" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ78" s="100">
+      <c r="AJ78" s="99">
         <v>-4832</v>
       </c>
-      <c r="AK78" s="100">
+      <c r="AK78" s="99">
         <v>31192</v>
       </c>
-      <c r="AL78" s="100">
+      <c r="AL78" s="99">
         <v>-10823</v>
       </c>
       <c r="AM78" s="5">
@@ -21844,7 +21848,7 @@
       <c r="AN78" s="5">
         <v>500</v>
       </c>
-      <c r="AO78" s="101"/>
+      <c r="AO78" s="100"/>
     </row>
     <row r="79" spans="1:41" s="82" customFormat="1">
       <c r="A79" s="52">
@@ -21921,16 +21925,16 @@
       <c r="AF79" s="81"/>
       <c r="AG79" s="78"/>
       <c r="AH79" s="52"/>
-      <c r="AI79" s="100">
+      <c r="AI79" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ79" s="100">
+      <c r="AJ79" s="99">
         <v>-10823</v>
       </c>
-      <c r="AK79" s="100">
+      <c r="AK79" s="99">
         <v>31192</v>
       </c>
-      <c r="AL79" s="100">
+      <c r="AL79" s="99">
         <v>-13223</v>
       </c>
       <c r="AM79" s="5">
@@ -21939,7 +21943,7 @@
       <c r="AN79" s="5">
         <v>500</v>
       </c>
-      <c r="AO79" s="101"/>
+      <c r="AO79" s="100"/>
     </row>
     <row r="80" spans="1:41" s="82" customFormat="1">
       <c r="A80" s="52">
@@ -22016,16 +22020,16 @@
       <c r="AF80" s="81"/>
       <c r="AG80" s="78"/>
       <c r="AH80" s="52"/>
-      <c r="AI80" s="100">
+      <c r="AI80" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ80" s="100">
+      <c r="AJ80" s="99">
         <v>-13223</v>
       </c>
-      <c r="AK80" s="100">
+      <c r="AK80" s="99">
         <v>31192</v>
       </c>
-      <c r="AL80" s="100">
+      <c r="AL80" s="99">
         <v>-15623</v>
       </c>
       <c r="AM80" s="5">
@@ -22034,7 +22038,7 @@
       <c r="AN80" s="5">
         <v>500</v>
       </c>
-      <c r="AO80" s="101"/>
+      <c r="AO80" s="100"/>
     </row>
     <row r="81" spans="1:41" s="82" customFormat="1">
       <c r="A81" s="52">
@@ -22111,16 +22115,16 @@
       <c r="AF81" s="81"/>
       <c r="AG81" s="78"/>
       <c r="AH81" s="52"/>
-      <c r="AI81" s="100">
+      <c r="AI81" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ81" s="100">
+      <c r="AJ81" s="99">
         <v>-15623</v>
       </c>
-      <c r="AK81" s="100">
+      <c r="AK81" s="99">
         <v>31192</v>
       </c>
-      <c r="AL81" s="100">
+      <c r="AL81" s="99">
         <v>-17223</v>
       </c>
       <c r="AM81" s="5">
@@ -22129,7 +22133,7 @@
       <c r="AN81" s="5">
         <v>500</v>
       </c>
-      <c r="AO81" s="101"/>
+      <c r="AO81" s="100"/>
     </row>
     <row r="82" spans="1:41" s="82" customFormat="1">
       <c r="A82" s="52">
@@ -22206,16 +22210,16 @@
       <c r="AF82" s="81"/>
       <c r="AG82" s="78"/>
       <c r="AH82" s="52"/>
-      <c r="AI82" s="100">
+      <c r="AI82" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ82" s="100">
+      <c r="AJ82" s="99">
         <v>-17223</v>
       </c>
-      <c r="AK82" s="100">
+      <c r="AK82" s="99">
         <v>31192</v>
       </c>
-      <c r="AL82" s="100">
+      <c r="AL82" s="99">
         <v>-18823</v>
       </c>
       <c r="AM82" s="5">
@@ -22224,7 +22228,7 @@
       <c r="AN82" s="5">
         <v>500</v>
       </c>
-      <c r="AO82" s="101"/>
+      <c r="AO82" s="100"/>
     </row>
     <row r="83" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A83" s="52">
@@ -22301,13 +22305,13 @@
       <c r="AF83" s="81"/>
       <c r="AG83" s="78"/>
       <c r="AH83" s="52"/>
-      <c r="AI83" s="100"/>
-      <c r="AJ83" s="100"/>
-      <c r="AK83" s="100"/>
-      <c r="AL83" s="100"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="103"/>
+      <c r="AI83" s="99"/>
+      <c r="AJ83" s="99"/>
+      <c r="AK83" s="99"/>
+      <c r="AL83" s="99"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="100"/>
     </row>
     <row r="84" spans="1:41" s="82" customFormat="1">
       <c r="A84" s="52">
@@ -22388,13 +22392,13 @@
       <c r="AF84" s="81"/>
       <c r="AG84" s="78"/>
       <c r="AH84" s="52"/>
-      <c r="AI84" s="100"/>
-      <c r="AJ84" s="100"/>
-      <c r="AK84" s="100"/>
-      <c r="AL84" s="100"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="135"/>
+      <c r="AI84" s="99"/>
+      <c r="AJ84" s="99"/>
+      <c r="AK84" s="99"/>
+      <c r="AL84" s="99"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="100"/>
     </row>
     <row r="85" spans="1:41" s="82" customFormat="1">
       <c r="A85" s="52">
@@ -22471,16 +22475,16 @@
       <c r="AF85" s="81"/>
       <c r="AG85" s="78"/>
       <c r="AH85" s="52"/>
-      <c r="AI85" s="100">
+      <c r="AI85" s="99">
         <v>31192</v>
       </c>
-      <c r="AJ85" s="100">
+      <c r="AJ85" s="99">
         <v>-18823</v>
       </c>
-      <c r="AK85" s="100">
+      <c r="AK85" s="99">
         <v>31192</v>
       </c>
-      <c r="AL85" s="100">
+      <c r="AL85" s="99">
         <v>-22423</v>
       </c>
       <c r="AM85" s="5">
@@ -22489,7 +22493,7 @@
       <c r="AN85" s="5">
         <v>500</v>
       </c>
-      <c r="AO85" s="101"/>
+      <c r="AO85" s="100"/>
     </row>
     <row r="86" spans="1:41" s="82" customFormat="1">
       <c r="A86" s="52">
@@ -22570,16 +22574,16 @@
       <c r="AF86" s="81"/>
       <c r="AG86" s="78"/>
       <c r="AH86" s="52"/>
-      <c r="AI86" s="100">
+      <c r="AI86" s="99">
         <v>32286</v>
       </c>
-      <c r="AJ86" s="100">
+      <c r="AJ86" s="99">
         <v>-4058.5</v>
       </c>
-      <c r="AK86" s="100">
+      <c r="AK86" s="99">
         <v>32888</v>
       </c>
-      <c r="AL86" s="100">
+      <c r="AL86" s="99">
         <v>-6307</v>
       </c>
       <c r="AM86" s="5">
@@ -22588,7 +22592,7 @@
       <c r="AN86" s="5">
         <v>500</v>
       </c>
-      <c r="AO86" s="104">
+      <c r="AO86" s="102">
         <v>30</v>
       </c>
     </row>
@@ -22667,16 +22671,16 @@
       <c r="AF87" s="81"/>
       <c r="AG87" s="78"/>
       <c r="AH87" s="52"/>
-      <c r="AI87" s="100">
+      <c r="AI87" s="99">
         <v>32888</v>
       </c>
-      <c r="AJ87" s="100">
+      <c r="AJ87" s="99">
         <v>-6307</v>
       </c>
-      <c r="AK87" s="100">
+      <c r="AK87" s="99">
         <v>32888</v>
       </c>
-      <c r="AL87" s="100">
+      <c r="AL87" s="99">
         <v>-8307</v>
       </c>
       <c r="AM87" s="5">
@@ -22685,7 +22689,7 @@
       <c r="AN87" s="5">
         <v>500</v>
       </c>
-      <c r="AO87" s="101"/>
+      <c r="AO87" s="100"/>
     </row>
     <row r="88" spans="1:41" s="82" customFormat="1">
       <c r="A88" s="52">
@@ -22762,16 +22766,16 @@
       <c r="AF88" s="81"/>
       <c r="AG88" s="78"/>
       <c r="AH88" s="52"/>
-      <c r="AI88" s="100">
+      <c r="AI88" s="99">
         <v>32888</v>
       </c>
-      <c r="AJ88" s="100">
+      <c r="AJ88" s="99">
         <v>-8307</v>
       </c>
-      <c r="AK88" s="100">
+      <c r="AK88" s="99">
         <v>32888</v>
       </c>
-      <c r="AL88" s="100">
+      <c r="AL88" s="99">
         <v>-10307</v>
       </c>
       <c r="AM88" s="5">
@@ -22780,7 +22784,7 @@
       <c r="AN88" s="5">
         <v>500</v>
       </c>
-      <c r="AO88" s="101"/>
+      <c r="AO88" s="100"/>
     </row>
     <row r="89" spans="1:41" s="82" customFormat="1">
       <c r="A89" s="52">
@@ -22849,13 +22853,13 @@
       <c r="AF89" s="81"/>
       <c r="AG89" s="78"/>
       <c r="AH89" s="52"/>
-      <c r="AI89" s="100"/>
-      <c r="AJ89" s="100"/>
-      <c r="AK89" s="100"/>
-      <c r="AL89" s="100"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="134"/>
+      <c r="AI89" s="99"/>
+      <c r="AJ89" s="99"/>
+      <c r="AK89" s="99"/>
+      <c r="AL89" s="99"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="100"/>
     </row>
     <row r="90" spans="1:41" s="82" customFormat="1">
       <c r="A90" s="52">
@@ -22932,16 +22936,16 @@
       <c r="AF90" s="81"/>
       <c r="AG90" s="78"/>
       <c r="AH90" s="52"/>
-      <c r="AI90" s="100">
+      <c r="AI90" s="99">
         <v>32888</v>
       </c>
-      <c r="AJ90" s="100">
+      <c r="AJ90" s="99">
         <v>-10307</v>
       </c>
-      <c r="AK90" s="100">
+      <c r="AK90" s="99">
         <v>32888</v>
       </c>
-      <c r="AL90" s="100">
+      <c r="AL90" s="99">
         <v>-12307</v>
       </c>
       <c r="AM90" s="5">
@@ -22950,7 +22954,7 @@
       <c r="AN90" s="5">
         <v>500</v>
       </c>
-      <c r="AO90" s="101"/>
+      <c r="AO90" s="100"/>
     </row>
     <row r="91" spans="1:41" s="82" customFormat="1">
       <c r="A91" s="52">
@@ -23027,16 +23031,16 @@
       <c r="AF91" s="81"/>
       <c r="AG91" s="78"/>
       <c r="AH91" s="52"/>
-      <c r="AI91" s="100">
+      <c r="AI91" s="99">
         <v>32888</v>
       </c>
-      <c r="AJ91" s="100">
+      <c r="AJ91" s="99">
         <v>-12307</v>
       </c>
-      <c r="AK91" s="100">
+      <c r="AK91" s="99">
         <v>32888</v>
       </c>
-      <c r="AL91" s="100">
+      <c r="AL91" s="99">
         <v>-13912</v>
       </c>
       <c r="AM91" s="5">
@@ -23045,7 +23049,7 @@
       <c r="AN91" s="5">
         <v>500</v>
       </c>
-      <c r="AO91" s="101"/>
+      <c r="AO91" s="100"/>
     </row>
     <row r="92" spans="1:41" s="82" customFormat="1">
       <c r="A92" s="52">
@@ -23122,16 +23126,16 @@
       <c r="AF92" s="81"/>
       <c r="AG92" s="78"/>
       <c r="AH92" s="52"/>
-      <c r="AI92" s="100">
+      <c r="AI92" s="99">
         <v>32888</v>
       </c>
-      <c r="AJ92" s="100">
+      <c r="AJ92" s="99">
         <v>-13912</v>
       </c>
-      <c r="AK92" s="100">
+      <c r="AK92" s="99">
         <v>32888</v>
       </c>
-      <c r="AL92" s="100">
+      <c r="AL92" s="99">
         <v>-15512</v>
       </c>
       <c r="AM92" s="5">
@@ -23140,7 +23144,7 @@
       <c r="AN92" s="5">
         <v>500</v>
       </c>
-      <c r="AO92" s="101"/>
+      <c r="AO92" s="100"/>
     </row>
     <row r="93" spans="1:41" s="82" customFormat="1">
       <c r="A93" s="52">
@@ -23209,13 +23213,13 @@
       <c r="AF93" s="81"/>
       <c r="AG93" s="78"/>
       <c r="AH93" s="52"/>
-      <c r="AI93" s="100"/>
-      <c r="AJ93" s="100"/>
-      <c r="AK93" s="100"/>
-      <c r="AL93" s="100"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="134"/>
+      <c r="AI93" s="99"/>
+      <c r="AJ93" s="99"/>
+      <c r="AK93" s="99"/>
+      <c r="AL93" s="99"/>
+      <c r="AM93" s="5"/>
+      <c r="AN93" s="5"/>
+      <c r="AO93" s="100"/>
     </row>
     <row r="94" spans="1:41" s="82" customFormat="1">
       <c r="A94" s="52">
@@ -23292,16 +23296,16 @@
       <c r="AF94" s="81"/>
       <c r="AG94" s="78"/>
       <c r="AH94" s="52"/>
-      <c r="AI94" s="100">
+      <c r="AI94" s="99">
         <v>32888</v>
       </c>
-      <c r="AJ94" s="100">
+      <c r="AJ94" s="99">
         <v>-15512</v>
       </c>
-      <c r="AK94" s="100">
+      <c r="AK94" s="99">
         <v>32888</v>
       </c>
-      <c r="AL94" s="100">
+      <c r="AL94" s="99">
         <v>-17112</v>
       </c>
       <c r="AM94" s="5">
@@ -23310,7 +23314,7 @@
       <c r="AN94" s="5">
         <v>500</v>
       </c>
-      <c r="AO94" s="101"/>
+      <c r="AO94" s="100"/>
     </row>
     <row r="95" spans="1:41" s="82" customFormat="1">
       <c r="A95" s="52">
@@ -23391,16 +23395,16 @@
       <c r="AF95" s="81"/>
       <c r="AG95" s="78"/>
       <c r="AH95" s="52"/>
-      <c r="AI95" s="100">
+      <c r="AI95" s="99">
         <v>32888</v>
       </c>
-      <c r="AJ95" s="100">
+      <c r="AJ95" s="99">
         <v>-17112</v>
       </c>
-      <c r="AK95" s="100">
+      <c r="AK95" s="99">
         <v>32288.5</v>
       </c>
-      <c r="AL95" s="100">
+      <c r="AL95" s="99">
         <v>-19349.5</v>
       </c>
       <c r="AM95" s="5">
@@ -23409,7 +23413,7 @@
       <c r="AN95" s="5">
         <v>500</v>
       </c>
-      <c r="AO95" s="104">
+      <c r="AO95" s="102">
         <v>30</v>
       </c>
     </row>
@@ -23492,16 +23496,16 @@
       <c r="AF96" s="81"/>
       <c r="AG96" s="78"/>
       <c r="AH96" s="52"/>
-      <c r="AI96" s="100">
+      <c r="AI96" s="99">
         <v>31203</v>
       </c>
-      <c r="AJ96" s="100">
+      <c r="AJ96" s="99">
         <v>-22427.5</v>
       </c>
-      <c r="AK96" s="100">
+      <c r="AK96" s="99">
         <v>33450.5</v>
       </c>
-      <c r="AL96" s="100">
+      <c r="AL96" s="99">
         <v>-24672</v>
       </c>
       <c r="AM96" s="5">
@@ -23510,7 +23514,7 @@
       <c r="AN96" s="5">
         <v>500</v>
       </c>
-      <c r="AO96" s="104">
+      <c r="AO96" s="102">
         <v>90</v>
       </c>
     </row>
@@ -23589,16 +23593,16 @@
       <c r="AF97" s="81"/>
       <c r="AG97" s="78"/>
       <c r="AH97" s="52"/>
-      <c r="AI97" s="100">
+      <c r="AI97" s="99">
         <v>33452</v>
       </c>
-      <c r="AJ97" s="100">
+      <c r="AJ97" s="99">
         <v>-24679</v>
       </c>
-      <c r="AK97" s="100">
+      <c r="AK97" s="99">
         <v>35052</v>
       </c>
-      <c r="AL97" s="100">
+      <c r="AL97" s="99">
         <v>-24679</v>
       </c>
       <c r="AM97" s="5">
@@ -23607,7 +23611,7 @@
       <c r="AN97" s="5">
         <v>500</v>
       </c>
-      <c r="AO97" s="101"/>
+      <c r="AO97" s="100"/>
     </row>
     <row r="98" spans="1:41" s="82" customFormat="1" ht="28">
       <c r="A98" s="52">
@@ -23684,13 +23688,13 @@
       <c r="AF98" s="81"/>
       <c r="AG98" s="78"/>
       <c r="AH98" s="52"/>
-      <c r="AI98" s="100"/>
-      <c r="AJ98" s="100"/>
-      <c r="AK98" s="100"/>
-      <c r="AL98" s="100"/>
-      <c r="AM98" s="1"/>
-      <c r="AN98" s="1"/>
-      <c r="AO98" s="103"/>
+      <c r="AI98" s="99"/>
+      <c r="AJ98" s="99"/>
+      <c r="AK98" s="99"/>
+      <c r="AL98" s="99"/>
+      <c r="AM98" s="5"/>
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="100"/>
     </row>
     <row r="99" spans="1:41" s="82" customFormat="1">
       <c r="A99" s="52">
@@ -23771,13 +23775,13 @@
       <c r="AF99" s="81"/>
       <c r="AG99" s="78"/>
       <c r="AH99" s="52"/>
-      <c r="AI99" s="100"/>
-      <c r="AJ99" s="100"/>
-      <c r="AK99" s="100"/>
-      <c r="AL99" s="100"/>
-      <c r="AM99" s="1"/>
-      <c r="AN99" s="1"/>
-      <c r="AO99" s="135"/>
+      <c r="AI99" s="99"/>
+      <c r="AJ99" s="99"/>
+      <c r="AK99" s="99"/>
+      <c r="AL99" s="99"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="100"/>
     </row>
     <row r="100" spans="1:41" s="82" customFormat="1">
       <c r="A100" s="52">
@@ -23854,16 +23858,16 @@
       <c r="AF100" s="81"/>
       <c r="AG100" s="78"/>
       <c r="AH100" s="52"/>
-      <c r="AI100" s="100">
+      <c r="AI100" s="99">
         <v>35052</v>
       </c>
-      <c r="AJ100" s="100">
+      <c r="AJ100" s="99">
         <v>-24679</v>
       </c>
-      <c r="AK100" s="100">
+      <c r="AK100" s="99">
         <v>38652</v>
       </c>
-      <c r="AL100" s="100">
+      <c r="AL100" s="99">
         <v>-24679</v>
       </c>
       <c r="AM100" s="5">
@@ -23872,7 +23876,7 @@
       <c r="AN100" s="5">
         <v>500</v>
       </c>
-      <c r="AO100" s="101"/>
+      <c r="AO100" s="100"/>
     </row>
     <row r="101" spans="1:41" s="82" customFormat="1">
       <c r="A101" s="52">
@@ -23949,16 +23953,16 @@
       <c r="AF101" s="81"/>
       <c r="AG101" s="78"/>
       <c r="AH101" s="52"/>
-      <c r="AI101" s="100">
+      <c r="AI101" s="99">
         <v>38652</v>
       </c>
-      <c r="AJ101" s="100">
+      <c r="AJ101" s="99">
         <v>-24679</v>
       </c>
-      <c r="AK101" s="100">
+      <c r="AK101" s="99">
         <v>44652</v>
       </c>
-      <c r="AL101" s="100">
+      <c r="AL101" s="99">
         <v>-24679</v>
       </c>
       <c r="AM101" s="5">
@@ -23967,7 +23971,7 @@
       <c r="AN101" s="5">
         <v>500</v>
       </c>
-      <c r="AO101" s="101"/>
+      <c r="AO101" s="100"/>
     </row>
     <row r="102" spans="1:41" s="82" customFormat="1">
       <c r="A102" s="52">
@@ -24044,16 +24048,16 @@
       <c r="AF102" s="81"/>
       <c r="AG102" s="78"/>
       <c r="AH102" s="52"/>
-      <c r="AI102" s="100">
+      <c r="AI102" s="99">
         <v>44652</v>
       </c>
-      <c r="AJ102" s="100">
+      <c r="AJ102" s="99">
         <v>-24679</v>
       </c>
-      <c r="AK102" s="100">
+      <c r="AK102" s="99">
         <v>50634</v>
       </c>
-      <c r="AL102" s="100">
+      <c r="AL102" s="99">
         <v>-24679</v>
       </c>
       <c r="AM102" s="5">
@@ -24062,7 +24066,7 @@
       <c r="AN102" s="5">
         <v>500</v>
       </c>
-      <c r="AO102" s="101"/>
+      <c r="AO102" s="100"/>
     </row>
     <row r="103" spans="1:41" s="82" customFormat="1">
       <c r="A103" s="52">
@@ -24139,16 +24143,16 @@
       <c r="AF103" s="81"/>
       <c r="AG103" s="78"/>
       <c r="AH103" s="52"/>
-      <c r="AI103" s="100">
+      <c r="AI103" s="99">
         <v>50634</v>
       </c>
-      <c r="AJ103" s="100">
+      <c r="AJ103" s="99">
         <v>-24679</v>
       </c>
-      <c r="AK103" s="100">
+      <c r="AK103" s="99">
         <v>54170.5</v>
       </c>
-      <c r="AL103" s="100">
+      <c r="AL103" s="99">
         <v>-24371</v>
       </c>
       <c r="AM103" s="5">
@@ -24157,7 +24161,7 @@
       <c r="AN103" s="5">
         <v>500</v>
       </c>
-      <c r="AO103" s="101"/>
+      <c r="AO103" s="100"/>
     </row>
     <row r="104" spans="1:41" s="82" customFormat="1">
       <c r="A104" s="52">
@@ -24238,16 +24242,16 @@
       <c r="AF104" s="81"/>
       <c r="AG104" s="78"/>
       <c r="AH104" s="52"/>
-      <c r="AI104" s="100">
+      <c r="AI104" s="99">
         <v>53035</v>
       </c>
-      <c r="AJ104" s="100">
+      <c r="AJ104" s="99">
         <v>-24686.5</v>
       </c>
-      <c r="AK104" s="100">
+      <c r="AK104" s="99">
         <v>54165.5</v>
       </c>
-      <c r="AL104" s="100">
+      <c r="AL104" s="99">
         <v>-24384</v>
       </c>
       <c r="AM104" s="5">
@@ -24256,7 +24260,7 @@
       <c r="AN104" s="5">
         <v>500</v>
       </c>
-      <c r="AO104" s="104">
+      <c r="AO104" s="102">
         <v>30</v>
       </c>
     </row>
@@ -24335,16 +24339,16 @@
       <c r="AF105" s="81"/>
       <c r="AG105" s="78"/>
       <c r="AH105" s="52"/>
-      <c r="AI105" s="100">
+      <c r="AI105" s="99">
         <v>54170.5</v>
       </c>
-      <c r="AJ105" s="100">
+      <c r="AJ105" s="99">
         <v>-24371</v>
       </c>
-      <c r="AK105" s="100">
+      <c r="AK105" s="99">
         <v>55902.5</v>
       </c>
-      <c r="AL105" s="100">
+      <c r="AL105" s="99">
         <v>-23371</v>
       </c>
       <c r="AM105" s="5">
@@ -24353,7 +24357,7 @@
       <c r="AN105" s="5">
         <v>500</v>
       </c>
-      <c r="AO105" s="101"/>
+      <c r="AO105" s="100"/>
     </row>
     <row r="106" spans="1:41" s="82" customFormat="1">
       <c r="A106" s="52">
@@ -24430,16 +24434,16 @@
       <c r="AF106" s="81"/>
       <c r="AG106" s="78"/>
       <c r="AH106" s="52"/>
-      <c r="AI106" s="100">
+      <c r="AI106" s="99">
         <v>55902.5</v>
       </c>
-      <c r="AJ106" s="100">
+      <c r="AJ106" s="99">
         <v>-23371</v>
       </c>
-      <c r="AK106" s="100">
+      <c r="AK106" s="99">
         <v>57634.5</v>
       </c>
-      <c r="AL106" s="100">
+      <c r="AL106" s="99">
         <v>-22371</v>
       </c>
       <c r="AM106" s="5">
@@ -24448,7 +24452,7 @@
       <c r="AN106" s="5">
         <v>500</v>
       </c>
-      <c r="AO106" s="101"/>
+      <c r="AO106" s="100"/>
     </row>
     <row r="107" spans="1:41" s="82" customFormat="1">
       <c r="A107" s="52">
@@ -24525,16 +24529,16 @@
       <c r="AF107" s="81"/>
       <c r="AG107" s="78"/>
       <c r="AH107" s="52"/>
-      <c r="AI107" s="100">
+      <c r="AI107" s="99">
         <v>57634.5</v>
       </c>
-      <c r="AJ107" s="100">
+      <c r="AJ107" s="99">
         <v>-22371</v>
       </c>
-      <c r="AK107" s="100">
+      <c r="AK107" s="99">
         <v>59020.5</v>
       </c>
-      <c r="AL107" s="100">
+      <c r="AL107" s="99">
         <v>-21571</v>
       </c>
       <c r="AM107" s="5">
@@ -24543,7 +24547,7 @@
       <c r="AN107" s="5">
         <v>500</v>
       </c>
-      <c r="AO107" s="101"/>
+      <c r="AO107" s="100"/>
     </row>
     <row r="108" spans="1:41" s="82" customFormat="1">
       <c r="A108" s="52">
@@ -24606,13 +24610,13 @@
       <c r="AF108" s="81"/>
       <c r="AG108" s="78"/>
       <c r="AH108" s="52"/>
-      <c r="AI108" s="100"/>
-      <c r="AJ108" s="100"/>
-      <c r="AK108" s="100"/>
-      <c r="AL108" s="100"/>
-      <c r="AM108" s="1"/>
-      <c r="AN108" s="1"/>
-      <c r="AO108" s="103"/>
+      <c r="AI108" s="99"/>
+      <c r="AJ108" s="99"/>
+      <c r="AK108" s="99"/>
+      <c r="AL108" s="99"/>
+      <c r="AM108" s="5"/>
+      <c r="AN108" s="5"/>
+      <c r="AO108" s="100"/>
     </row>
     <row r="109" spans="1:41" s="82" customFormat="1">
       <c r="A109" s="52">
@@ -24675,13 +24679,13 @@
       <c r="AF109" s="81"/>
       <c r="AG109" s="78"/>
       <c r="AH109" s="52"/>
-      <c r="AI109" s="100"/>
-      <c r="AJ109" s="100"/>
-      <c r="AK109" s="100"/>
-      <c r="AL109" s="100"/>
-      <c r="AM109" s="1"/>
-      <c r="AN109" s="1"/>
-      <c r="AO109" s="101"/>
+      <c r="AI109" s="99"/>
+      <c r="AJ109" s="99"/>
+      <c r="AK109" s="99"/>
+      <c r="AL109" s="99"/>
+      <c r="AM109" s="5"/>
+      <c r="AN109" s="5"/>
+      <c r="AO109" s="100"/>
     </row>
     <row r="110" spans="1:41" s="82" customFormat="1">
       <c r="A110" s="52">
@@ -24744,13 +24748,13 @@
       <c r="AF110" s="81"/>
       <c r="AG110" s="78"/>
       <c r="AH110" s="52"/>
-      <c r="AI110" s="100"/>
-      <c r="AJ110" s="100"/>
-      <c r="AK110" s="100"/>
-      <c r="AL110" s="100"/>
-      <c r="AM110" s="1"/>
-      <c r="AN110" s="1"/>
-      <c r="AO110" s="135"/>
+      <c r="AI110" s="99"/>
+      <c r="AJ110" s="99"/>
+      <c r="AK110" s="99"/>
+      <c r="AL110" s="99"/>
+      <c r="AM110" s="5"/>
+      <c r="AN110" s="5"/>
+      <c r="AO110" s="100"/>
     </row>
     <row r="111" spans="1:41" s="82" customFormat="1">
       <c r="A111" s="52">
@@ -24827,16 +24831,16 @@
       <c r="AF111" s="81"/>
       <c r="AG111" s="78"/>
       <c r="AH111" s="52"/>
-      <c r="AI111" s="100">
+      <c r="AI111" s="99">
         <v>59020.5</v>
       </c>
-      <c r="AJ111" s="100">
+      <c r="AJ111" s="99">
         <v>-21571</v>
       </c>
-      <c r="AK111" s="100">
+      <c r="AK111" s="99">
         <v>60405.5</v>
       </c>
-      <c r="AL111" s="100">
+      <c r="AL111" s="99">
         <v>-20771</v>
       </c>
       <c r="AM111" s="5">
@@ -24845,7 +24849,7 @@
       <c r="AN111" s="5">
         <v>500</v>
       </c>
-      <c r="AO111" s="101"/>
+      <c r="AO111" s="100"/>
     </row>
     <row r="112" spans="1:41">
       <c r="U112" s="57"/>
